--- a/ig/ch-term/ch-vacd-targetdiseases-vaccines-cm.xlsx
+++ b/ig/ch-term/ch-vacd-targetdiseases-vaccines-cm.xlsx
@@ -9,12 +9,13 @@
     <sheet name="Metadata" r:id="rId3" sheetId="1"/>
     <sheet name="Mapping Table 0" r:id="rId4" sheetId="2"/>
     <sheet name="Mapping Table 1" r:id="rId5" sheetId="3"/>
+    <sheet name="Mapping Table 2" r:id="rId6" sheetId="4"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1578" uniqueCount="476">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="506">
   <si>
     <t>Property</t>
   </si>
@@ -25,13 +26,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://fhir.ch/ig/ch-term/ConceptMap/ch-vacd-targetdiseases-vaccines-cm</t>
+    <t>http://fhir.ch/ig/ch-vacd/ConceptMap/ch-vacd-targetdiseases-vaccines-cm</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>3.0.0</t>
+    <t>3.1.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -61,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-05-16T11:36:46+00:00</t>
+    <t>2024-12-17T13:29:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -76,7 +77,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(WORK))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -751,7 +752,13 @@
     <t>68752</t>
   </si>
   <si>
-    <t>Vaxneuvance, Injektionssuspension</t>
+    <t>Vaxneuvance</t>
+  </si>
+  <si>
+    <t>69222</t>
+  </si>
+  <si>
+    <t>Prevenar 20</t>
   </si>
   <si>
     <t>240532009</t>
@@ -841,7 +848,7 @@
     <t>68473</t>
   </si>
   <si>
-    <t>Nuvaxovid 0.5 ml, Injektionsdispersion</t>
+    <t>Nuvaxovid 0.5 ml</t>
   </si>
   <si>
     <t>68710-01</t>
@@ -895,7 +902,7 @@
     <t>69189</t>
   </si>
   <si>
-    <t>Spikevax Bivalent Original / Omicron BA.4-5, dispersion for injection</t>
+    <t>Spikevax Bivalent Original / Omicron BA.4-5</t>
   </si>
   <si>
     <t>69211</t>
@@ -907,7 +914,7 @@
     <t>69465</t>
   </si>
   <si>
-    <t>Spikevax XBB.1.5 0.10 mg/ml, Dispersion zur Injektion</t>
+    <t>Spikevax XBB.1.5 0.10 mg/ml</t>
   </si>
   <si>
     <t>69484</t>
@@ -916,7 +923,37 @@
     <t>69488</t>
   </si>
   <si>
-    <t>Comirnaty Omicron XBB.1.5 (30 Mikrogramm)/Dosis, Injektionsdispersion</t>
+    <t>Comirnaty Omicron XBB.1.5 (30 Mikrogramm)/Dosis</t>
+  </si>
+  <si>
+    <t>69815</t>
+  </si>
+  <si>
+    <t>Comirnaty Omicron XBB.1.5, 0.042 mg</t>
+  </si>
+  <si>
+    <t>69913</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 0.042 mg, Injektionsdispersion in einer Fertigspritze, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69912-01</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 30 μg, Injektionsdispersion, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69912-02</t>
+  </si>
+  <si>
+    <t>Comirnaty JN.1 10 μg, Injektionsdispersion, Pfizer AG</t>
+  </si>
+  <si>
+    <t>69788</t>
+  </si>
+  <si>
+    <t>Spikevax JN.1 (mRNA-1273.167), 0.10mg/ml, Dispersion zur Injektion, Moderna Switzerland GmbH</t>
   </si>
   <si>
     <t>719865001</t>
@@ -961,6 +998,66 @@
     <t>Menjugate liquid</t>
   </si>
   <si>
+    <t>359814004</t>
+  </si>
+  <si>
+    <t>Monkeypox (disorder)</t>
+  </si>
+  <si>
+    <t>69173</t>
+  </si>
+  <si>
+    <t>Jynneos</t>
+  </si>
+  <si>
+    <t>67924001</t>
+  </si>
+  <si>
+    <t>Smallpox (disorder)</t>
+  </si>
+  <si>
+    <t>55735004</t>
+  </si>
+  <si>
+    <t>Respiratory syncytial virus infection (disorder)</t>
+  </si>
+  <si>
+    <t>69310</t>
+  </si>
+  <si>
+    <t>AREXVY</t>
+  </si>
+  <si>
+    <t>69691</t>
+  </si>
+  <si>
+    <t>Abrysvo</t>
+  </si>
+  <si>
+    <t>38362002</t>
+  </si>
+  <si>
+    <t>Dengue (disorder)</t>
+  </si>
+  <si>
+    <t>69403</t>
+  </si>
+  <si>
+    <t>Qdenga 0.5 ml</t>
+  </si>
+  <si>
+    <t>111852003</t>
+  </si>
+  <si>
+    <t>Vaccinia (disorder)</t>
+  </si>
+  <si>
+    <t>787859002</t>
+  </si>
+  <si>
+    <t>Vaccine product (medicinal product)</t>
+  </si>
+  <si>
     <t>http://fhir.ch/ig/ch-vacd/CodeSystem/ch-vacd-myvaccines-cs</t>
   </si>
   <si>
@@ -1424,12 +1521,6 @@
   </si>
   <si>
     <t>Pandemrix</t>
-  </si>
-  <si>
-    <t>67924001</t>
-  </si>
-  <si>
-    <t>Smallpox (disorder)</t>
   </si>
   <si>
     <t>169</t>
@@ -1726,7 +1817,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E177"/>
+  <dimension ref="A1:E187"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -2440,10 +2531,10 @@
         <v>39</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="43">
@@ -2457,10 +2548,10 @@
         <v>39</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="44">
@@ -2474,27 +2565,27 @@
         <v>39</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s" s="2">
-        <v>80</v>
+        <v>86</v>
       </c>
       <c r="B45" t="s" s="2">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="C45" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="46">
@@ -2508,10 +2599,10 @@
         <v>39</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="47">
@@ -2525,10 +2616,10 @@
         <v>39</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="48">
@@ -2542,10 +2633,10 @@
         <v>39</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="49">
@@ -2559,10 +2650,10 @@
         <v>39</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>44</v>
+        <v>62</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>45</v>
+        <v>63</v>
       </c>
     </row>
     <row r="50">
@@ -2576,10 +2667,10 @@
         <v>39</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>63</v>
+        <v>49</v>
       </c>
     </row>
     <row r="51">
@@ -2593,10 +2684,10 @@
         <v>39</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>48</v>
+        <v>66</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>49</v>
+        <v>67</v>
       </c>
     </row>
     <row r="52">
@@ -2610,10 +2701,10 @@
         <v>39</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="53">
@@ -2627,10 +2718,10 @@
         <v>39</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>57</v>
+        <v>77</v>
       </c>
     </row>
     <row r="54">
@@ -2644,10 +2735,10 @@
         <v>39</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="55">
@@ -2661,27 +2752,27 @@
         <v>39</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s" s="2">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B56" t="s" s="2">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="C56" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="57">
@@ -2695,10 +2786,10 @@
         <v>39</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="58">
@@ -2712,10 +2803,10 @@
         <v>39</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>59</v>
+        <v>43</v>
       </c>
     </row>
     <row r="59">
@@ -2729,10 +2820,10 @@
         <v>39</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>42</v>
+        <v>90</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>43</v>
+        <v>91</v>
       </c>
     </row>
     <row r="60">
@@ -2746,10 +2837,10 @@
         <v>39</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>90</v>
+        <v>44</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>91</v>
+        <v>45</v>
       </c>
     </row>
     <row r="61">
@@ -2763,10 +2854,10 @@
         <v>39</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>44</v>
+        <v>60</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>45</v>
+        <v>61</v>
       </c>
     </row>
     <row r="62">
@@ -2780,10 +2871,10 @@
         <v>39</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>60</v>
+        <v>48</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>61</v>
+        <v>49</v>
       </c>
     </row>
     <row r="63">
@@ -2797,10 +2888,10 @@
         <v>39</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>49</v>
+        <v>65</v>
       </c>
     </row>
     <row r="64">
@@ -2814,10 +2905,10 @@
         <v>39</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>65</v>
+        <v>67</v>
       </c>
     </row>
     <row r="65">
@@ -2831,10 +2922,10 @@
         <v>39</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>67</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66">
@@ -2848,10 +2939,10 @@
         <v>39</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>56</v>
+        <v>78</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>57</v>
+        <v>79</v>
       </c>
     </row>
     <row r="67">
@@ -2865,27 +2956,27 @@
         <v>39</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>79</v>
+        <v>75</v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="s" s="2">
-        <v>88</v>
+        <v>92</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>89</v>
+        <v>93</v>
       </c>
       <c r="C68" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>74</v>
+        <v>40</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>75</v>
+        <v>41</v>
       </c>
     </row>
     <row r="69">
@@ -2899,10 +2990,10 @@
         <v>39</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
     </row>
     <row r="70">
@@ -2916,10 +3007,10 @@
         <v>39</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>58</v>
+        <v>94</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>59</v>
+        <v>95</v>
       </c>
     </row>
     <row r="71">
@@ -2933,10 +3024,10 @@
         <v>39</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>94</v>
+        <v>48</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>95</v>
+        <v>49</v>
       </c>
     </row>
     <row r="72">
@@ -2950,10 +3041,10 @@
         <v>39</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>49</v>
+        <v>57</v>
       </c>
     </row>
     <row r="73">
@@ -2967,27 +3058,27 @@
         <v>39</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="s" s="2">
-        <v>92</v>
+        <v>96</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="C74" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>74</v>
+        <v>98</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>75</v>
+        <v>99</v>
       </c>
     </row>
     <row r="75">
@@ -3001,10 +3092,10 @@
         <v>39</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>99</v>
+        <v>101</v>
       </c>
     </row>
     <row r="76">
@@ -3018,10 +3109,10 @@
         <v>39</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>101</v>
+        <v>103</v>
       </c>
     </row>
     <row r="77">
@@ -3035,27 +3126,27 @@
         <v>39</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="s" s="2">
-        <v>96</v>
+        <v>106</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>97</v>
+        <v>107</v>
       </c>
       <c r="C78" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>105</v>
+        <v>59</v>
       </c>
     </row>
     <row r="79">
@@ -3069,10 +3160,10 @@
         <v>39</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>58</v>
+        <v>108</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>59</v>
+        <v>109</v>
       </c>
     </row>
     <row r="80">
@@ -3086,10 +3177,10 @@
         <v>39</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>109</v>
+        <v>111</v>
       </c>
     </row>
     <row r="81">
@@ -3103,10 +3194,10 @@
         <v>39</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>111</v>
+        <v>113</v>
       </c>
     </row>
     <row r="82">
@@ -3120,10 +3211,10 @@
         <v>39</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="83">
@@ -3137,10 +3228,10 @@
         <v>39</v>
       </c>
       <c r="D83" t="s" s="2">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="84">
@@ -3154,10 +3245,10 @@
         <v>39</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="85">
@@ -3171,10 +3262,10 @@
         <v>39</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="86">
@@ -3188,10 +3279,10 @@
         <v>39</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>120</v>
+        <v>102</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>121</v>
+        <v>103</v>
       </c>
     </row>
     <row r="87">
@@ -3205,10 +3296,10 @@
         <v>39</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>102</v>
+        <v>122</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>103</v>
+        <v>123</v>
       </c>
     </row>
     <row r="88">
@@ -3222,10 +3313,10 @@
         <v>39</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>122</v>
+        <v>56</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>123</v>
+        <v>57</v>
       </c>
     </row>
     <row r="89">
@@ -3239,27 +3330,27 @@
         <v>39</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>56</v>
+        <v>74</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>57</v>
+        <v>75</v>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="s" s="2">
-        <v>106</v>
+        <v>124</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>107</v>
+        <v>125</v>
       </c>
       <c r="C90" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>74</v>
+        <v>126</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>75</v>
+        <v>127</v>
       </c>
     </row>
     <row r="91">
@@ -3273,10 +3364,10 @@
         <v>39</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="92">
@@ -3290,10 +3381,10 @@
         <v>39</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>128</v>
+        <v>130</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="93">
@@ -3307,10 +3398,10 @@
         <v>39</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>130</v>
+        <v>132</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="94">
@@ -3324,10 +3415,10 @@
         <v>39</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="95">
@@ -3341,10 +3432,10 @@
         <v>39</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="96">
@@ -3358,10 +3449,10 @@
         <v>39</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="97">
@@ -3375,27 +3466,27 @@
         <v>39</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="s" s="2">
-        <v>124</v>
+        <v>142</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>125</v>
+        <v>143</v>
       </c>
       <c r="C98" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="99">
@@ -3409,10 +3500,10 @@
         <v>39</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>126</v>
+        <v>144</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>127</v>
+        <v>145</v>
       </c>
     </row>
     <row r="100">
@@ -3426,10 +3517,10 @@
         <v>39</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>144</v>
+        <v>130</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>145</v>
+        <v>131</v>
       </c>
     </row>
     <row r="101">
@@ -3443,10 +3534,10 @@
         <v>39</v>
       </c>
       <c r="D101" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="102">
@@ -3460,10 +3551,10 @@
         <v>39</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="103">
@@ -3477,27 +3568,27 @@
         <v>39</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="s" s="2">
-        <v>142</v>
+        <v>146</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>143</v>
+        <v>147</v>
       </c>
       <c r="C104" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>140</v>
+        <v>126</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>141</v>
+        <v>127</v>
       </c>
     </row>
     <row r="105">
@@ -3511,10 +3602,10 @@
         <v>39</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>126</v>
+        <v>130</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>127</v>
+        <v>131</v>
       </c>
     </row>
     <row r="106">
@@ -3528,10 +3619,10 @@
         <v>39</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>131</v>
+        <v>137</v>
       </c>
     </row>
     <row r="107">
@@ -3545,10 +3636,10 @@
         <v>39</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>137</v>
+        <v>139</v>
       </c>
     </row>
     <row r="108">
@@ -3562,27 +3653,27 @@
         <v>39</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="C109" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>140</v>
+        <v>150</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>141</v>
+        <v>151</v>
       </c>
     </row>
     <row r="110">
@@ -3596,10 +3687,10 @@
         <v>39</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="111">
@@ -3613,10 +3704,10 @@
         <v>39</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="112">
@@ -3630,27 +3721,27 @@
         <v>39</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="s" s="2">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>149</v>
+        <v>159</v>
       </c>
       <c r="C113" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>156</v>
+        <v>160</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>157</v>
+        <v>161</v>
       </c>
     </row>
     <row r="114">
@@ -3664,10 +3755,10 @@
         <v>39</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="115">
@@ -3681,10 +3772,10 @@
         <v>39</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>162</v>
+        <v>164</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="116">
@@ -3698,10 +3789,10 @@
         <v>39</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>164</v>
+        <v>166</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="117">
@@ -3715,10 +3806,10 @@
         <v>39</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>167</v>
+        <v>169</v>
       </c>
     </row>
     <row r="118">
@@ -3732,10 +3823,10 @@
         <v>39</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="119">
@@ -3749,27 +3840,27 @@
         <v>39</v>
       </c>
       <c r="D119" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>158</v>
+        <v>174</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>159</v>
+        <v>175</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="E120" t="s" s="2">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="121">
@@ -3783,10 +3874,10 @@
         <v>39</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="E121" t="s" s="2">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="122">
@@ -3800,10 +3891,10 @@
         <v>39</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="E122" t="s" s="2">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="123">
@@ -3817,10 +3908,10 @@
         <v>39</v>
       </c>
       <c r="D123" t="s" s="2">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="E123" t="s" s="2">
-        <v>181</v>
+        <v>183</v>
       </c>
     </row>
     <row r="124">
@@ -3834,10 +3925,10 @@
         <v>39</v>
       </c>
       <c r="D124" t="s" s="2">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="E124" t="s" s="2">
-        <v>183</v>
+        <v>185</v>
       </c>
     </row>
     <row r="125">
@@ -3851,10 +3942,10 @@
         <v>39</v>
       </c>
       <c r="D125" t="s" s="2">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="E125" t="s" s="2">
-        <v>185</v>
+        <v>187</v>
       </c>
     </row>
     <row r="126">
@@ -3868,10 +3959,10 @@
         <v>39</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="E126" t="s" s="2">
-        <v>187</v>
+        <v>189</v>
       </c>
     </row>
     <row r="127">
@@ -3885,10 +3976,10 @@
         <v>39</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="E127" t="s" s="2">
-        <v>189</v>
+        <v>191</v>
       </c>
     </row>
     <row r="128">
@@ -3902,10 +3993,10 @@
         <v>39</v>
       </c>
       <c r="D128" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="E128" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="129">
@@ -3919,10 +4010,10 @@
         <v>39</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="E129" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="130">
@@ -3936,10 +4027,10 @@
         <v>39</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="E130" t="s" s="2">
-        <v>195</v>
+        <v>197</v>
       </c>
     </row>
     <row r="131">
@@ -3953,10 +4044,10 @@
         <v>39</v>
       </c>
       <c r="D131" t="s" s="2">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="E131" t="s" s="2">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="132">
@@ -3970,10 +4061,10 @@
         <v>39</v>
       </c>
       <c r="D132" t="s" s="2">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="E132" t="s" s="2">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="133">
@@ -3987,10 +4078,10 @@
         <v>39</v>
       </c>
       <c r="D133" t="s" s="2">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="E133" t="s" s="2">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="134">
@@ -4004,27 +4095,27 @@
         <v>39</v>
       </c>
       <c r="D134" t="s" s="2">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="E134" t="s" s="2">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
-        <v>174</v>
+        <v>206</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>175</v>
+        <v>207</v>
       </c>
       <c r="C135" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D135" t="s" s="2">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="E135" t="s" s="2">
-        <v>205</v>
+        <v>209</v>
       </c>
     </row>
     <row r="136">
@@ -4038,27 +4129,27 @@
         <v>39</v>
       </c>
       <c r="D136" t="s" s="2">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="E136" t="s" s="2">
-        <v>209</v>
+        <v>211</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>206</v>
+        <v>212</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>207</v>
+        <v>213</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D137" t="s" s="2">
-        <v>210</v>
+        <v>214</v>
       </c>
       <c r="E137" t="s" s="2">
-        <v>211</v>
+        <v>215</v>
       </c>
     </row>
     <row r="138">
@@ -4072,44 +4163,44 @@
         <v>39</v>
       </c>
       <c r="D138" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="E138" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="E139" t="s" s="2">
-        <v>217</v>
+        <v>221</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D140" t="s" s="2">
-        <v>220</v>
+        <v>224</v>
       </c>
       <c r="E140" t="s" s="2">
-        <v>221</v>
+        <v>225</v>
       </c>
     </row>
     <row r="141">
@@ -4123,10 +4214,10 @@
         <v>39</v>
       </c>
       <c r="D141" t="s" s="2">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="E141" t="s" s="2">
-        <v>225</v>
+        <v>227</v>
       </c>
     </row>
     <row r="142">
@@ -4140,10 +4231,10 @@
         <v>39</v>
       </c>
       <c r="D142" t="s" s="2">
-        <v>226</v>
+        <v>138</v>
       </c>
       <c r="E142" t="s" s="2">
-        <v>227</v>
+        <v>139</v>
       </c>
     </row>
     <row r="143">
@@ -4157,61 +4248,61 @@
         <v>39</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="E143" t="s" s="2">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>222</v>
+        <v>228</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>223</v>
+        <v>229</v>
       </c>
       <c r="C144" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D144" t="s" s="2">
-        <v>140</v>
+        <v>230</v>
       </c>
       <c r="E144" t="s" s="2">
-        <v>141</v>
+        <v>231</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>230</v>
+        <v>234</v>
       </c>
       <c r="E145" t="s" s="2">
-        <v>231</v>
+        <v>235</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D146" t="s" s="2">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="E146" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
     </row>
     <row r="147">
@@ -4225,10 +4316,10 @@
         <v>39</v>
       </c>
       <c r="D147" t="s" s="2">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="E147" t="s" s="2">
-        <v>239</v>
+        <v>241</v>
       </c>
     </row>
     <row r="148">
@@ -4242,10 +4333,10 @@
         <v>39</v>
       </c>
       <c r="D148" t="s" s="2">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="E148" t="s" s="2">
-        <v>241</v>
+        <v>243</v>
       </c>
     </row>
     <row r="149">
@@ -4259,10 +4350,10 @@
         <v>39</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="E149" t="s" s="2">
-        <v>243</v>
+        <v>245</v>
       </c>
     </row>
     <row r="150">
@@ -4276,409 +4367,409 @@
         <v>39</v>
       </c>
       <c r="D150" t="s" s="2">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="E150" t="s" s="2">
-        <v>245</v>
+        <v>247</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D151" t="s" s="2">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="E151" t="s" s="2">
-        <v>249</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B152" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C152" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D152" t="s" s="2">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="E152" t="s" s="2">
-        <v>251</v>
+        <v>253</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D153" t="s" s="2">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="E153" t="s" s="2">
-        <v>253</v>
+        <v>255</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D154" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="E154" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="E155" t="s" s="2">
-        <v>261</v>
+        <v>263</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D156" t="s" s="2">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="E156" t="s" s="2">
-        <v>265</v>
+        <v>267</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D157" t="s" s="2">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="E157" t="s" s="2">
-        <v>269</v>
+        <v>271</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D158" t="s" s="2">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="E158" t="s" s="2">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B159" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C159" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D159" t="s" s="2">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="E159" t="s" s="2">
-        <v>273</v>
+        <v>275</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C160" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D160" t="s" s="2">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="E160" t="s" s="2">
-        <v>275</v>
+        <v>277</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D161" t="s" s="2">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="E161" t="s" s="2">
-        <v>277</v>
+        <v>279</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C162" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D162" t="s" s="2">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="E162" t="s" s="2">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D163" t="s" s="2">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="E163" t="s" s="2">
-        <v>281</v>
+        <v>283</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D164" t="s" s="2">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="E164" t="s" s="2">
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="E165" t="s" s="2">
-        <v>285</v>
+        <v>287</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D166" t="s" s="2">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="E166" t="s" s="2">
-        <v>287</v>
+        <v>289</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D167" t="s" s="2">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="E167" t="s" s="2">
-        <v>289</v>
+        <v>291</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C168" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D168" t="s" s="2">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="E168" t="s" s="2">
-        <v>291</v>
+        <v>293</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C169" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D169" t="s" s="2">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="E169" t="s" s="2">
-        <v>293</v>
+        <v>295</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C170" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D170" t="s" s="2">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="E170" t="s" s="2">
-        <v>295</v>
+        <v>297</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D171" t="s" s="2">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="E171" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C172" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D172" t="s" s="2">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="E172" t="s" s="2">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D173" t="s" s="2">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="E173" t="s" s="2">
-        <v>300</v>
+        <v>302</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="C174" t="s" s="2">
         <v>39</v>
@@ -4692,10 +4783,10 @@
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>301</v>
+        <v>268</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>302</v>
+        <v>269</v>
       </c>
       <c r="C175" t="s" s="2">
         <v>39</v>
@@ -4709,36 +4800,206 @@
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B176" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C176" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D176" t="s" s="2">
         <v>307</v>
       </c>
-      <c r="B176" t="s" s="2">
+      <c r="E176" t="s" s="2">
         <v>308</v>
-      </c>
-      <c r="C176" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D176" t="s" s="2">
-        <v>309</v>
-      </c>
-      <c r="E176" t="s" s="2">
-        <v>310</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B177" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C177" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D177" t="s" s="2">
+        <v>309</v>
+      </c>
+      <c r="E177" t="s" s="2">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="s" s="2">
+        <v>268</v>
+      </c>
+      <c r="B178" t="s" s="2">
+        <v>269</v>
+      </c>
+      <c r="C178" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D178" t="s" s="2">
         <v>311</v>
       </c>
-      <c r="B177" t="s" s="2">
+      <c r="E178" t="s" s="2">
         <v>312</v>
       </c>
-      <c r="C177" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D177" t="s" s="2">
+    </row>
+    <row r="179">
+      <c r="A179" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="E177" t="s" s="2">
+      <c r="B179" t="s" s="2">
         <v>314</v>
+      </c>
+      <c r="C179" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D179" t="s" s="2">
+        <v>315</v>
+      </c>
+      <c r="E179" t="s" s="2">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="s" s="2">
+        <v>313</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>314</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D180" t="s" s="2">
+        <v>317</v>
+      </c>
+      <c r="E180" t="s" s="2">
+        <v>318</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="s" s="2">
+        <v>319</v>
+      </c>
+      <c r="B181" t="s" s="2">
+        <v>320</v>
+      </c>
+      <c r="C181" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D181" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="E181" t="s" s="2">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="s" s="2">
+        <v>323</v>
+      </c>
+      <c r="B182" t="s" s="2">
+        <v>324</v>
+      </c>
+      <c r="C182" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D182" t="s" s="2">
+        <v>325</v>
+      </c>
+      <c r="E182" t="s" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="s" s="2">
+        <v>327</v>
+      </c>
+      <c r="B183" t="s" s="2">
+        <v>328</v>
+      </c>
+      <c r="C183" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D183" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="E183" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="B184" t="s" s="2">
+        <v>332</v>
+      </c>
+      <c r="C184" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D184" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="E184" t="s" s="2">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B185" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C185" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D185" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="E185" t="s" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B186" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C186" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D186" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="E186" t="s" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>340</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D187" t="s" s="2">
+        <v>341</v>
+      </c>
+      <c r="E187" t="s" s="2">
+        <v>342</v>
       </c>
     </row>
   </sheetData>
@@ -4747,6 +5008,70 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:E3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s" s="1">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s" s="1">
+        <v>32</v>
+      </c>
+      <c r="C1" t="s" s="1">
+        <v>33</v>
+      </c>
+      <c r="D1" t="s" s="1">
+        <v>30</v>
+      </c>
+      <c r="E1" t="s" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="B2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="C2" t="s" s="2">
+        <v>35</v>
+      </c>
+      <c r="D2" t="s" s="2">
+        <v>34</v>
+      </c>
+      <c r="E2" t="s" s="2">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B3" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C3" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D3" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="E3" t="s" s="2">
+        <v>346</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:E132"/>
   <sheetViews>
@@ -4782,7 +5107,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>315</v>
+        <v>347</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>35</v>
@@ -4799,10 +5124,10 @@
         <v>39</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="4">
@@ -4816,10 +5141,10 @@
         <v>39</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="5">
@@ -4833,10 +5158,10 @@
         <v>39</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="6">
@@ -4850,10 +5175,10 @@
         <v>39</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="7">
@@ -4867,10 +5192,10 @@
         <v>39</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="8">
@@ -4884,10 +5209,10 @@
         <v>39</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>327</v>
+        <v>359</v>
       </c>
     </row>
     <row r="9">
@@ -4901,10 +5226,10 @@
         <v>39</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>329</v>
+        <v>361</v>
       </c>
     </row>
     <row r="10">
@@ -4918,10 +5243,10 @@
         <v>39</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
     </row>
     <row r="11">
@@ -4935,10 +5260,10 @@
         <v>39</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>332</v>
+        <v>364</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>333</v>
+        <v>365</v>
       </c>
     </row>
     <row r="12">
@@ -4952,10 +5277,10 @@
         <v>39</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="13">
@@ -4969,10 +5294,10 @@
         <v>39</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
     <row r="14">
@@ -4986,10 +5311,10 @@
         <v>39</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>339</v>
+        <v>371</v>
       </c>
     </row>
     <row r="15">
@@ -5003,10 +5328,10 @@
         <v>39</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>341</v>
+        <v>373</v>
       </c>
     </row>
     <row r="16">
@@ -5020,10 +5345,10 @@
         <v>39</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>343</v>
+        <v>375</v>
       </c>
     </row>
     <row r="17">
@@ -5037,10 +5362,10 @@
         <v>39</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>345</v>
+        <v>377</v>
       </c>
     </row>
     <row r="18">
@@ -5054,10 +5379,10 @@
         <v>39</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>347</v>
+        <v>379</v>
       </c>
     </row>
     <row r="19">
@@ -5071,10 +5396,10 @@
         <v>39</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>349</v>
+        <v>381</v>
       </c>
     </row>
     <row r="20">
@@ -5088,10 +5413,10 @@
         <v>39</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>351</v>
+        <v>383</v>
       </c>
     </row>
     <row r="21">
@@ -5105,10 +5430,10 @@
         <v>39</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>352</v>
+        <v>384</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>353</v>
+        <v>385</v>
       </c>
     </row>
     <row r="22">
@@ -5122,10 +5447,10 @@
         <v>39</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="23">
@@ -5139,10 +5464,10 @@
         <v>39</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="24">
@@ -5156,10 +5481,10 @@
         <v>39</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25">
@@ -5173,10 +5498,10 @@
         <v>39</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>322</v>
+        <v>354</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>323</v>
+        <v>355</v>
       </c>
     </row>
     <row r="26">
@@ -5190,10 +5515,10 @@
         <v>39</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>354</v>
+        <v>386</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>355</v>
+        <v>387</v>
       </c>
     </row>
     <row r="27">
@@ -5207,10 +5532,10 @@
         <v>39</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>324</v>
+        <v>356</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>325</v>
+        <v>357</v>
       </c>
     </row>
     <row r="28">
@@ -5224,10 +5549,10 @@
         <v>39</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>326</v>
+        <v>358</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>327</v>
+        <v>359</v>
       </c>
     </row>
     <row r="29">
@@ -5241,10 +5566,10 @@
         <v>39</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>328</v>
+        <v>360</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>329</v>
+        <v>361</v>
       </c>
     </row>
     <row r="30">
@@ -5258,10 +5583,10 @@
         <v>39</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>356</v>
+        <v>388</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>357</v>
+        <v>389</v>
       </c>
     </row>
     <row r="31">
@@ -5275,10 +5600,10 @@
         <v>39</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
     </row>
     <row r="32">
@@ -5292,10 +5617,10 @@
         <v>39</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>358</v>
+        <v>390</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>359</v>
+        <v>391</v>
       </c>
     </row>
     <row r="33">
@@ -5309,10 +5634,10 @@
         <v>39</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="34">
@@ -5326,10 +5651,10 @@
         <v>39</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
     <row r="35">
@@ -5343,10 +5668,10 @@
         <v>39</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>339</v>
+        <v>371</v>
       </c>
     </row>
     <row r="36">
@@ -5360,10 +5685,10 @@
         <v>39</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>341</v>
+        <v>373</v>
       </c>
     </row>
     <row r="37">
@@ -5377,10 +5702,10 @@
         <v>39</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>343</v>
+        <v>375</v>
       </c>
     </row>
     <row r="38">
@@ -5394,10 +5719,10 @@
         <v>39</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>344</v>
+        <v>376</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>345</v>
+        <v>377</v>
       </c>
     </row>
     <row r="39">
@@ -5411,10 +5736,10 @@
         <v>39</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>347</v>
+        <v>379</v>
       </c>
     </row>
     <row r="40">
@@ -5428,10 +5753,10 @@
         <v>39</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>349</v>
+        <v>381</v>
       </c>
     </row>
     <row r="41">
@@ -5445,10 +5770,10 @@
         <v>39</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>351</v>
+        <v>383</v>
       </c>
     </row>
     <row r="42">
@@ -5462,10 +5787,10 @@
         <v>39</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>339</v>
+        <v>371</v>
       </c>
     </row>
     <row r="43">
@@ -5479,10 +5804,10 @@
         <v>39</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>341</v>
+        <v>373</v>
       </c>
     </row>
     <row r="44">
@@ -5496,10 +5821,10 @@
         <v>39</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>342</v>
+        <v>374</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>343</v>
+        <v>375</v>
       </c>
     </row>
     <row r="45">
@@ -5513,10 +5838,10 @@
         <v>39</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="46">
@@ -5530,10 +5855,10 @@
         <v>39</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="47">
@@ -5547,10 +5872,10 @@
         <v>39</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="48">
@@ -5564,10 +5889,10 @@
         <v>39</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>346</v>
+        <v>378</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>347</v>
+        <v>379</v>
       </c>
     </row>
     <row r="49">
@@ -5581,10 +5906,10 @@
         <v>39</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>348</v>
+        <v>380</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>349</v>
+        <v>381</v>
       </c>
     </row>
     <row r="50">
@@ -5598,10 +5923,10 @@
         <v>39</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
     </row>
     <row r="51">
@@ -5615,10 +5940,10 @@
         <v>39</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>350</v>
+        <v>382</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>351</v>
+        <v>383</v>
       </c>
     </row>
     <row r="52">
@@ -5632,10 +5957,10 @@
         <v>39</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>335</v>
+        <v>367</v>
       </c>
     </row>
     <row r="53">
@@ -5649,10 +5974,10 @@
         <v>39</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
     <row r="54">
@@ -5666,10 +5991,10 @@
         <v>39</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>360</v>
+        <v>392</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>361</v>
+        <v>393</v>
       </c>
     </row>
     <row r="55">
@@ -5683,10 +6008,10 @@
         <v>39</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>339</v>
+        <v>371</v>
       </c>
     </row>
     <row r="56">
@@ -5700,10 +6025,10 @@
         <v>39</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>362</v>
+        <v>394</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>363</v>
+        <v>395</v>
       </c>
     </row>
     <row r="57">
@@ -5717,10 +6042,10 @@
         <v>39</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>340</v>
+        <v>372</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>341</v>
+        <v>373</v>
       </c>
     </row>
     <row r="58">
@@ -5734,10 +6059,10 @@
         <v>39</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>364</v>
+        <v>396</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>365</v>
+        <v>397</v>
       </c>
     </row>
     <row r="59">
@@ -5751,10 +6076,10 @@
         <v>39</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>366</v>
+        <v>398</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>367</v>
+        <v>399</v>
       </c>
     </row>
     <row r="60">
@@ -5768,10 +6093,10 @@
         <v>39</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="61">
@@ -5785,10 +6110,10 @@
         <v>39</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>368</v>
+        <v>400</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>369</v>
+        <v>401</v>
       </c>
     </row>
     <row r="62">
@@ -5802,10 +6127,10 @@
         <v>39</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>370</v>
+        <v>402</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>371</v>
+        <v>403</v>
       </c>
     </row>
     <row r="63">
@@ -5819,10 +6144,10 @@
         <v>39</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>372</v>
+        <v>404</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>373</v>
+        <v>405</v>
       </c>
     </row>
     <row r="64">
@@ -5836,10 +6161,10 @@
         <v>39</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>374</v>
+        <v>406</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>375</v>
+        <v>407</v>
       </c>
     </row>
     <row r="65">
@@ -5853,10 +6178,10 @@
         <v>39</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>376</v>
+        <v>408</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>377</v>
+        <v>409</v>
       </c>
     </row>
     <row r="66">
@@ -5870,10 +6195,10 @@
         <v>39</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>378</v>
+        <v>410</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>379</v>
+        <v>411</v>
       </c>
     </row>
     <row r="67">
@@ -5887,10 +6212,10 @@
         <v>39</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>380</v>
+        <v>412</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>381</v>
+        <v>413</v>
       </c>
     </row>
     <row r="68">
@@ -5904,10 +6229,10 @@
         <v>39</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>318</v>
+        <v>350</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>319</v>
+        <v>351</v>
       </c>
     </row>
     <row r="69">
@@ -5921,10 +6246,10 @@
         <v>39</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>320</v>
+        <v>352</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>321</v>
+        <v>353</v>
       </c>
     </row>
     <row r="70">
@@ -5938,10 +6263,10 @@
         <v>39</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>382</v>
+        <v>414</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>383</v>
+        <v>415</v>
       </c>
     </row>
     <row r="71">
@@ -5955,10 +6280,10 @@
         <v>39</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>330</v>
+        <v>362</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>331</v>
+        <v>363</v>
       </c>
     </row>
     <row r="72">
@@ -5972,10 +6297,10 @@
         <v>39</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>384</v>
+        <v>416</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>385</v>
+        <v>417</v>
       </c>
     </row>
     <row r="73">
@@ -5989,10 +6314,10 @@
         <v>39</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>336</v>
+        <v>368</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>337</v>
+        <v>369</v>
       </c>
     </row>
     <row r="74">
@@ -6006,10 +6331,10 @@
         <v>39</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>386</v>
+        <v>418</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>387</v>
+        <v>419</v>
       </c>
     </row>
     <row r="75">
@@ -6023,10 +6348,10 @@
         <v>39</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>389</v>
+        <v>421</v>
       </c>
     </row>
     <row r="76">
@@ -6040,10 +6365,10 @@
         <v>39</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>390</v>
+        <v>422</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>391</v>
+        <v>423</v>
       </c>
     </row>
     <row r="77">
@@ -6057,10 +6382,10 @@
         <v>39</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>392</v>
+        <v>424</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>393</v>
+        <v>425</v>
       </c>
     </row>
     <row r="78">
@@ -6074,10 +6399,10 @@
         <v>39</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>338</v>
+        <v>370</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>339</v>
+        <v>371</v>
       </c>
     </row>
     <row r="79">
@@ -6091,10 +6416,10 @@
         <v>39</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>394</v>
+        <v>426</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>395</v>
+        <v>427</v>
       </c>
     </row>
     <row r="80">
@@ -6108,10 +6433,10 @@
         <v>39</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>396</v>
+        <v>428</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>397</v>
+        <v>429</v>
       </c>
     </row>
     <row r="81">
@@ -6125,10 +6450,10 @@
         <v>39</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>316</v>
+        <v>348</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>317</v>
+        <v>349</v>
       </c>
     </row>
     <row r="82">
@@ -6142,10 +6467,10 @@
         <v>39</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>398</v>
+        <v>430</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>399</v>
+        <v>431</v>
       </c>
     </row>
     <row r="83">
@@ -6159,10 +6484,10 @@
         <v>39</v>
       </c>
       <c r="D83" t="s" s="2">
-        <v>400</v>
+        <v>432</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>401</v>
+        <v>433</v>
       </c>
     </row>
     <row r="84">
@@ -6176,10 +6501,10 @@
         <v>39</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>402</v>
+        <v>434</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>403</v>
+        <v>435</v>
       </c>
     </row>
     <row r="85">
@@ -6193,10 +6518,10 @@
         <v>39</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>388</v>
+        <v>420</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>389</v>
+        <v>421</v>
       </c>
     </row>
     <row r="86">
@@ -6210,10 +6535,10 @@
         <v>39</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>404</v>
+        <v>436</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>405</v>
+        <v>437</v>
       </c>
     </row>
     <row r="87">
@@ -6227,10 +6552,10 @@
         <v>39</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>406</v>
+        <v>438</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>407</v>
+        <v>439</v>
       </c>
     </row>
     <row r="88">
@@ -6244,10 +6569,10 @@
         <v>39</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>409</v>
+        <v>441</v>
       </c>
     </row>
     <row r="89">
@@ -6261,10 +6586,10 @@
         <v>39</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>411</v>
+        <v>443</v>
       </c>
     </row>
     <row r="90">
@@ -6278,10 +6603,10 @@
         <v>39</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>412</v>
+        <v>444</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>413</v>
+        <v>445</v>
       </c>
     </row>
     <row r="91">
@@ -6295,10 +6620,10 @@
         <v>39</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>415</v>
+        <v>447</v>
       </c>
     </row>
     <row r="92">
@@ -6312,10 +6637,10 @@
         <v>39</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>417</v>
+        <v>449</v>
       </c>
     </row>
     <row r="93">
@@ -6329,10 +6654,10 @@
         <v>39</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
     </row>
     <row r="94">
@@ -6346,10 +6671,10 @@
         <v>39</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>421</v>
+        <v>453</v>
       </c>
     </row>
     <row r="95">
@@ -6363,10 +6688,10 @@
         <v>39</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>422</v>
+        <v>454</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>423</v>
+        <v>455</v>
       </c>
     </row>
     <row r="96">
@@ -6380,10 +6705,10 @@
         <v>39</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>425</v>
+        <v>457</v>
       </c>
     </row>
     <row r="97">
@@ -6397,10 +6722,10 @@
         <v>39</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>427</v>
+        <v>459</v>
       </c>
     </row>
     <row r="98">
@@ -6414,10 +6739,10 @@
         <v>39</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>429</v>
+        <v>461</v>
       </c>
     </row>
     <row r="99">
@@ -6431,10 +6756,10 @@
         <v>39</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
     </row>
     <row r="100">
@@ -6448,10 +6773,10 @@
         <v>39</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>430</v>
+        <v>462</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>431</v>
+        <v>463</v>
       </c>
     </row>
     <row r="101">
@@ -6465,10 +6790,10 @@
         <v>39</v>
       </c>
       <c r="D101" t="s" s="2">
-        <v>420</v>
+        <v>452</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>421</v>
+        <v>453</v>
       </c>
     </row>
     <row r="102">
@@ -6482,10 +6807,10 @@
         <v>39</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>426</v>
+        <v>458</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>427</v>
+        <v>459</v>
       </c>
     </row>
     <row r="103">
@@ -6499,10 +6824,10 @@
         <v>39</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>415</v>
+        <v>447</v>
       </c>
     </row>
     <row r="104">
@@ -6516,10 +6841,10 @@
         <v>39</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>429</v>
+        <v>461</v>
       </c>
     </row>
     <row r="105">
@@ -6533,10 +6858,10 @@
         <v>39</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>416</v>
+        <v>448</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>417</v>
+        <v>449</v>
       </c>
     </row>
     <row r="106">
@@ -6550,10 +6875,10 @@
         <v>39</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>432</v>
+        <v>464</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>433</v>
+        <v>465</v>
       </c>
     </row>
     <row r="107">
@@ -6567,10 +6892,10 @@
         <v>39</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>408</v>
+        <v>440</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>409</v>
+        <v>441</v>
       </c>
     </row>
     <row r="108">
@@ -6584,10 +6909,10 @@
         <v>39</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>410</v>
+        <v>442</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>411</v>
+        <v>443</v>
       </c>
     </row>
     <row r="109">
@@ -6601,10 +6926,10 @@
         <v>39</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>434</v>
+        <v>466</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>435</v>
+        <v>467</v>
       </c>
     </row>
     <row r="110">
@@ -6618,10 +6943,10 @@
         <v>39</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>414</v>
+        <v>446</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>415</v>
+        <v>447</v>
       </c>
     </row>
     <row r="111">
@@ -6635,10 +6960,10 @@
         <v>39</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>418</v>
+        <v>450</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>419</v>
+        <v>451</v>
       </c>
     </row>
     <row r="112">
@@ -6652,10 +6977,10 @@
         <v>39</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>436</v>
+        <v>468</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>437</v>
+        <v>469</v>
       </c>
     </row>
     <row r="113">
@@ -6669,10 +6994,10 @@
         <v>39</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>424</v>
+        <v>456</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>425</v>
+        <v>457</v>
       </c>
     </row>
     <row r="114">
@@ -6686,10 +7011,10 @@
         <v>39</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>438</v>
+        <v>470</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>439</v>
+        <v>471</v>
       </c>
     </row>
     <row r="115">
@@ -6703,10 +7028,10 @@
         <v>39</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>428</v>
+        <v>460</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>429</v>
+        <v>461</v>
       </c>
     </row>
     <row r="116">
@@ -6720,10 +7045,10 @@
         <v>39</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>440</v>
+        <v>472</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>441</v>
+        <v>473</v>
       </c>
     </row>
     <row r="117">
@@ -6737,10 +7062,10 @@
         <v>39</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>442</v>
+        <v>474</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>443</v>
+        <v>475</v>
       </c>
     </row>
     <row r="118">
@@ -6754,10 +7079,10 @@
         <v>39</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>444</v>
+        <v>476</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>445</v>
+        <v>477</v>
       </c>
     </row>
     <row r="119">
@@ -6771,10 +7096,10 @@
         <v>39</v>
       </c>
       <c r="D119" t="s" s="2">
-        <v>446</v>
+        <v>478</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>447</v>
+        <v>479</v>
       </c>
     </row>
     <row r="120">
@@ -6788,10 +7113,10 @@
         <v>39</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>448</v>
+        <v>480</v>
       </c>
       <c r="E120" t="s" s="2">
-        <v>449</v>
+        <v>481</v>
       </c>
     </row>
     <row r="121">
@@ -6805,10 +7130,10 @@
         <v>39</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>450</v>
+        <v>482</v>
       </c>
       <c r="E121" t="s" s="2">
-        <v>451</v>
+        <v>483</v>
       </c>
     </row>
     <row r="122">
@@ -6822,10 +7147,10 @@
         <v>39</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>452</v>
+        <v>484</v>
       </c>
       <c r="E122" t="s" s="2">
-        <v>453</v>
+        <v>485</v>
       </c>
     </row>
     <row r="123">
@@ -6839,10 +7164,10 @@
         <v>39</v>
       </c>
       <c r="D123" t="s" s="2">
-        <v>454</v>
+        <v>486</v>
       </c>
       <c r="E123" t="s" s="2">
-        <v>455</v>
+        <v>487</v>
       </c>
     </row>
     <row r="124">
@@ -6856,10 +7181,10 @@
         <v>39</v>
       </c>
       <c r="D124" t="s" s="2">
-        <v>456</v>
+        <v>488</v>
       </c>
       <c r="E124" t="s" s="2">
-        <v>457</v>
+        <v>489</v>
       </c>
     </row>
     <row r="125">
@@ -6873,10 +7198,10 @@
         <v>39</v>
       </c>
       <c r="D125" t="s" s="2">
-        <v>458</v>
+        <v>490</v>
       </c>
       <c r="E125" t="s" s="2">
-        <v>459</v>
+        <v>491</v>
       </c>
     </row>
     <row r="126">
@@ -6890,10 +7215,10 @@
         <v>39</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>460</v>
+        <v>492</v>
       </c>
       <c r="E126" t="s" s="2">
-        <v>461</v>
+        <v>493</v>
       </c>
     </row>
     <row r="127">
@@ -6907,95 +7232,95 @@
         <v>39</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>462</v>
+        <v>494</v>
       </c>
       <c r="E127" t="s" s="2">
-        <v>463</v>
+        <v>495</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D128" t="s" s="2">
-        <v>464</v>
+        <v>496</v>
       </c>
       <c r="E128" t="s" s="2">
-        <v>465</v>
+        <v>497</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C129" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>466</v>
+        <v>498</v>
       </c>
       <c r="E129" t="s" s="2">
-        <v>467</v>
+        <v>499</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>301</v>
+        <v>313</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>302</v>
+        <v>314</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>468</v>
+        <v>500</v>
       </c>
       <c r="E130" t="s" s="2">
-        <v>469</v>
+        <v>501</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>470</v>
+        <v>331</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>471</v>
+        <v>332</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D131" t="s" s="2">
-        <v>472</v>
+        <v>502</v>
       </c>
       <c r="E131" t="s" s="2">
-        <v>473</v>
+        <v>503</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>470</v>
+        <v>331</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>471</v>
+        <v>332</v>
       </c>
       <c r="C132" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D132" t="s" s="2">
-        <v>474</v>
+        <v>504</v>
       </c>
       <c r="E132" t="s" s="2">
-        <v>475</v>
+        <v>505</v>
       </c>
     </row>
   </sheetData>

--- a/ig/ch-term/ch-vacd-targetdiseases-vaccines-cm.xlsx
+++ b/ig/ch-term/ch-vacd-targetdiseases-vaccines-cm.xlsx
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.1.0</t>
+    <t>3.2.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-12-17T13:29:11+00:00</t>
+    <t>2025-05-21T19:27:50+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -77,7 +77,7 @@
     <t>HL7 Switzerland (https://www.hl7.ch/)</t>
   </si>
   <si>
-    <t>HL7 Switzerland (https://www.hl7.ch/(work))</t>
+    <t>HL7 Switzerland (https://www.hl7.ch/(Work))</t>
   </si>
   <si>
     <t>Jurisdiction</t>
@@ -89,7 +89,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Mappings from target disease to vaccine code according to the correcsponding valuesets</t>
+    <t>Mappings from TargetDisease to VaccineCode according to the correcsponding valuesets</t>
   </si>
   <si>
     <t>Purpose</t>

--- a/ig/ch-term/ch-vacd-targetdiseases-vaccines-cm.xlsx
+++ b/ig/ch-term/ch-vacd-targetdiseases-vaccines-cm.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1643" uniqueCount="506">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1828" uniqueCount="580">
   <si>
     <t>Property</t>
   </si>
@@ -32,7 +32,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>3.2.0</t>
+    <t>3.3.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -62,7 +62,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-05-21T19:27:50+00:00</t>
+    <t>2025-12-15T10:47:47+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -635,6 +635,12 @@
     <t>Fluenz Tetra</t>
   </si>
   <si>
+    <t>70042</t>
+  </si>
+  <si>
+    <t>69992</t>
+  </si>
+  <si>
     <t>63650001</t>
   </si>
   <si>
@@ -761,6 +767,12 @@
     <t>Prevenar 20</t>
   </si>
   <si>
+    <t>69781</t>
+  </si>
+  <si>
+    <t>Capvaxive, Injektionslösung in Fertigspritze MSD Merck Sharp &amp; Dohme AG</t>
+  </si>
+  <si>
     <t>240532009</t>
   </si>
   <si>
@@ -956,6 +968,24 @@
     <t>Spikevax JN.1 (mRNA-1273.167), 0.10mg/ml, Dispersion zur Injektion, Moderna Switzerland GmbH</t>
   </si>
   <si>
+    <t>70205</t>
+  </si>
+  <si>
+    <t>Spikevax LP.8.1 Moderna Switzerland GmbH</t>
+  </si>
+  <si>
+    <t>70400</t>
+  </si>
+  <si>
+    <t>Comirnaty LP.8.1 10 μg, Injektionsdispersion Pfizer AG</t>
+  </si>
+  <si>
+    <t>70403</t>
+  </si>
+  <si>
+    <t>Comirnaty LP.8.1 30 Mikrogramm, Injektionsdispersion in einer Fertigspritze Pfizer AG'</t>
+  </si>
+  <si>
     <t>719865001</t>
   </si>
   <si>
@@ -1034,6 +1064,12 @@
     <t>Abrysvo</t>
   </si>
   <si>
+    <t>69995-01</t>
+  </si>
+  <si>
+    <t>mResvia Respiratorisches-Synzytial-Virus (RSV) Vakzin 0.10 mg/ml, Injektionsdispersion	Moderna Switzerland GmbH</t>
+  </si>
+  <si>
     <t>38362002</t>
   </si>
   <si>
@@ -1046,6 +1082,36 @@
     <t>Qdenga 0.5 ml</t>
   </si>
   <si>
+    <t>442438000</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus (disorder)</t>
+  </si>
+  <si>
+    <t>69863-01</t>
+  </si>
+  <si>
+    <t>Efluelda TIV 0.5 mL, suspension injectable en seringue pré-remplie	Sanofi-Aventis (Suisse) SA</t>
+  </si>
+  <si>
+    <t>442696006</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus subtype H1N1 (disorder)</t>
+  </si>
+  <si>
+    <t>772810003</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus subtype H3N2 (disorder)</t>
+  </si>
+  <si>
+    <t>24662006</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza B virus (disorder)</t>
+  </si>
+  <si>
     <t>111852003</t>
   </si>
   <si>
@@ -1056,6 +1122,162 @@
   </si>
   <si>
     <t>Vaccine product (medicinal product)</t>
+  </si>
+  <si>
+    <t>34014006</t>
+  </si>
+  <si>
+    <t>Viral disease (disorder)</t>
+  </si>
+  <si>
+    <t>87628006</t>
+  </si>
+  <si>
+    <t>Bacterial infectious disease (disorder)</t>
+  </si>
+  <si>
+    <t>422400008</t>
+  </si>
+  <si>
+    <t>Vomiting (disorder)</t>
+  </si>
+  <si>
+    <t>6142004</t>
+  </si>
+  <si>
+    <t>Influenza (disorder)</t>
+  </si>
+  <si>
+    <t>85904008</t>
+  </si>
+  <si>
+    <t>Paratyphoid fever (disorder)</t>
+  </si>
+  <si>
+    <t>409498004</t>
+  </si>
+  <si>
+    <t>Anthrax (disorder)</t>
+  </si>
+  <si>
+    <t>721758001</t>
+  </si>
+  <si>
+    <t>Infection caused by Coxiella (disorder)</t>
+  </si>
+  <si>
+    <t>25225006</t>
+  </si>
+  <si>
+    <t>Disease caused by Adenovirus (disorder)</t>
+  </si>
+  <si>
+    <t>721734000</t>
+  </si>
+  <si>
+    <t>Infection caused by Francisella (disorder)</t>
+  </si>
+  <si>
+    <t>77377001</t>
+  </si>
+  <si>
+    <t>Leptospirosis (disorder)</t>
+  </si>
+  <si>
+    <t>715507005</t>
+  </si>
+  <si>
+    <t>Infection of central nervous system caused by Borrelia burgdorferi (disorder)</t>
+  </si>
+  <si>
+    <t>721778009</t>
+  </si>
+  <si>
+    <t>Infection caused by Junin virus (disorder)</t>
+  </si>
+  <si>
+    <t>19265001</t>
+  </si>
+  <si>
+    <t>Tularemia (disorder)</t>
+  </si>
+  <si>
+    <t>58750007</t>
+  </si>
+  <si>
+    <t>Plague (disorder)</t>
+  </si>
+  <si>
+    <t>772828001</t>
+  </si>
+  <si>
+    <t>Influenza caused by Influenza A virus subtype H5N1 (disorder)</t>
+  </si>
+  <si>
+    <t>7180009</t>
+  </si>
+  <si>
+    <t>Meningitis (disorder)</t>
+  </si>
+  <si>
+    <t>186772009</t>
+  </si>
+  <si>
+    <t>Rocky Mountain spotted fever (disorder)</t>
+  </si>
+  <si>
+    <t>37246009</t>
+  </si>
+  <si>
+    <t>Disease caused by rickettsiae (disorder)</t>
+  </si>
+  <si>
+    <t>56038003</t>
+  </si>
+  <si>
+    <t>Staphylococcal infectious disease (disorder)</t>
+  </si>
+  <si>
+    <t>373437006</t>
+  </si>
+  <si>
+    <t>Infection caused by Mycobacterium bovis (disorder)</t>
+  </si>
+  <si>
+    <t>53648006</t>
+  </si>
+  <si>
+    <t>Disease caused by Enterovirus (disorder)</t>
+  </si>
+  <si>
+    <t>62676009</t>
+  </si>
+  <si>
+    <t>Falciparum malaria (disorder)</t>
+  </si>
+  <si>
+    <t>713456006</t>
+  </si>
+  <si>
+    <t>Infection caused by Human enterovirus 71 (disorder)</t>
+  </si>
+  <si>
+    <t>95896000</t>
+  </si>
+  <si>
+    <t>Protozoan infection (disorder)</t>
+  </si>
+  <si>
+    <t>56688005</t>
+  </si>
+  <si>
+    <t>Clostridial infection (disorder)</t>
+  </si>
+  <si>
+    <t>83436008</t>
+  </si>
+  <si>
+    <t>Yersiniosis (disorder)</t>
   </si>
   <si>
     <t>http://fhir.ch/ig/ch-vacd/CodeSystem/ch-vacd-myvaccines-cs</t>
@@ -1817,7 +2039,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E187"/>
+  <dimension ref="A1:E198"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -4103,410 +4325,410 @@
     </row>
     <row r="135">
       <c r="A135" t="s" s="2">
+        <v>174</v>
+      </c>
+      <c r="B135" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C135" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D135" t="s" s="2">
         <v>206</v>
       </c>
-      <c r="B135" t="s" s="2">
-        <v>207</v>
-      </c>
-      <c r="C135" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D135" t="s" s="2">
-        <v>208</v>
-      </c>
       <c r="E135" t="s" s="2">
-        <v>209</v>
+        <v>175</v>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="s" s="2">
-        <v>206</v>
+        <v>174</v>
       </c>
       <c r="B136" t="s" s="2">
+        <v>175</v>
+      </c>
+      <c r="C136" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D136" t="s" s="2">
         <v>207</v>
       </c>
-      <c r="C136" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D136" t="s" s="2">
-        <v>210</v>
-      </c>
       <c r="E136" t="s" s="2">
-        <v>211</v>
+        <v>175</v>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="s" s="2">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="C137" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D137" t="s" s="2">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="E137" t="s" s="2">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="s" s="2">
+        <v>208</v>
+      </c>
+      <c r="B138" t="s" s="2">
+        <v>209</v>
+      </c>
+      <c r="C138" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D138" t="s" s="2">
         <v>212</v>
       </c>
-      <c r="B138" t="s" s="2">
+      <c r="E138" t="s" s="2">
         <v>213</v>
-      </c>
-      <c r="C138" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D138" t="s" s="2">
-        <v>216</v>
-      </c>
-      <c r="E138" t="s" s="2">
-        <v>217</v>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="s" s="2">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="C139" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D139" t="s" s="2">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="E139" t="s" s="2">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="s" s="2">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="C140" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D140" t="s" s="2">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="E140" t="s" s="2">
-        <v>225</v>
+        <v>219</v>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="s" s="2">
+        <v>220</v>
+      </c>
+      <c r="B141" t="s" s="2">
+        <v>221</v>
+      </c>
+      <c r="C141" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D141" t="s" s="2">
         <v>222</v>
       </c>
-      <c r="B141" t="s" s="2">
+      <c r="E141" t="s" s="2">
         <v>223</v>
-      </c>
-      <c r="C141" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D141" t="s" s="2">
-        <v>226</v>
-      </c>
-      <c r="E141" t="s" s="2">
-        <v>227</v>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C142" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D142" t="s" s="2">
-        <v>138</v>
+        <v>226</v>
       </c>
       <c r="E142" t="s" s="2">
-        <v>139</v>
+        <v>227</v>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="s" s="2">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C143" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D143" t="s" s="2">
-        <v>140</v>
+        <v>228</v>
       </c>
       <c r="E143" t="s" s="2">
-        <v>141</v>
+        <v>229</v>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="s" s="2">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="C144" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D144" t="s" s="2">
-        <v>230</v>
+        <v>138</v>
       </c>
       <c r="E144" t="s" s="2">
-        <v>231</v>
+        <v>139</v>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="s" s="2">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="C145" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D145" t="s" s="2">
-        <v>234</v>
+        <v>140</v>
       </c>
       <c r="E145" t="s" s="2">
-        <v>235</v>
+        <v>141</v>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="s" s="2">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="C146" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D146" t="s" s="2">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="E146" t="s" s="2">
-        <v>239</v>
+        <v>233</v>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="s" s="2">
+        <v>234</v>
+      </c>
+      <c r="B147" t="s" s="2">
+        <v>235</v>
+      </c>
+      <c r="C147" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D147" t="s" s="2">
         <v>236</v>
       </c>
-      <c r="B147" t="s" s="2">
+      <c r="E147" t="s" s="2">
         <v>237</v>
-      </c>
-      <c r="C147" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D147" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="E147" t="s" s="2">
-        <v>241</v>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B148" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C148" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D148" t="s" s="2">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="E148" t="s" s="2">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B149" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C149" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D149" t="s" s="2">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="E149" t="s" s="2">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B150" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C150" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D150" t="s" s="2">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="E150" t="s" s="2">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C151" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D151" t="s" s="2">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="E151" t="s" s="2">
-        <v>251</v>
+        <v>247</v>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="s" s="2">
+        <v>238</v>
+      </c>
+      <c r="B152" t="s" s="2">
+        <v>239</v>
+      </c>
+      <c r="C152" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D152" t="s" s="2">
         <v>248</v>
       </c>
-      <c r="B152" t="s" s="2">
+      <c r="E152" t="s" s="2">
         <v>249</v>
-      </c>
-      <c r="C152" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D152" t="s" s="2">
-        <v>252</v>
-      </c>
-      <c r="E152" t="s" s="2">
-        <v>253</v>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="s" s="2">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="B153" t="s" s="2">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="C153" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D153" t="s" s="2">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="E153" t="s" s="2">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="s" s="2">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="C154" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D154" t="s" s="2">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="E154" t="s" s="2">
-        <v>259</v>
+        <v>255</v>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="s" s="2">
-        <v>260</v>
+        <v>252</v>
       </c>
       <c r="B155" t="s" s="2">
-        <v>261</v>
+        <v>253</v>
       </c>
       <c r="C155" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D155" t="s" s="2">
-        <v>262</v>
+        <v>256</v>
       </c>
       <c r="E155" t="s" s="2">
-        <v>263</v>
+        <v>257</v>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="s" s="2">
-        <v>264</v>
+        <v>252</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>265</v>
+        <v>253</v>
       </c>
       <c r="C156" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D156" t="s" s="2">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E156" t="s" s="2">
-        <v>267</v>
+        <v>259</v>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="s" s="2">
-        <v>268</v>
+        <v>260</v>
       </c>
       <c r="B157" t="s" s="2">
-        <v>269</v>
+        <v>261</v>
       </c>
       <c r="C157" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D157" t="s" s="2">
-        <v>270</v>
+        <v>262</v>
       </c>
       <c r="E157" t="s" s="2">
-        <v>271</v>
+        <v>263</v>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="s" s="2">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D158" t="s" s="2">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="E158" t="s" s="2">
-        <v>273</v>
+        <v>267</v>
       </c>
     </row>
     <row r="159">
@@ -4520,228 +4742,228 @@
         <v>39</v>
       </c>
       <c r="D159" t="s" s="2">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="E159" t="s" s="2">
-        <v>275</v>
+        <v>271</v>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B160" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C160" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D160" t="s" s="2">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="E160" t="s" s="2">
-        <v>277</v>
+        <v>275</v>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D161" t="s" s="2">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="E161" t="s" s="2">
-        <v>279</v>
+        <v>277</v>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B162" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C162" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D162" t="s" s="2">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="E162" t="s" s="2">
-        <v>281</v>
+        <v>279</v>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B163" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C163" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D163" t="s" s="2">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="E163" t="s" s="2">
-        <v>283</v>
+        <v>281</v>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B164" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C164" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D164" t="s" s="2">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="E164" t="s" s="2">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B165" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C165" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D165" t="s" s="2">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="E165" t="s" s="2">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D166" t="s" s="2">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="E166" t="s" s="2">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B167" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C167" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D167" t="s" s="2">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="E167" t="s" s="2">
-        <v>291</v>
+        <v>289</v>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B168" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C168" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D168" t="s" s="2">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="E168" t="s" s="2">
-        <v>293</v>
+        <v>291</v>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B169" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C169" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D169" t="s" s="2">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="E169" t="s" s="2">
-        <v>295</v>
+        <v>293</v>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B170" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C170" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D170" t="s" s="2">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="E170" t="s" s="2">
-        <v>297</v>
+        <v>295</v>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B171" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C171" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D171" t="s" s="2">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="E171" t="s" s="2">
-        <v>299</v>
+        <v>297</v>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B172" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C172" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D172" t="s" s="2">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="E172" t="s" s="2">
         <v>299</v>
@@ -4749,257 +4971,444 @@
     </row>
     <row r="173">
       <c r="A173" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B173" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C173" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D173" t="s" s="2">
+        <v>300</v>
+      </c>
+      <c r="E173" t="s" s="2">
         <v>301</v>
-      </c>
-      <c r="E173" t="s" s="2">
-        <v>302</v>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B174" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C174" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D174" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="E174" t="s" s="2">
         <v>303</v>
-      </c>
-      <c r="E174" t="s" s="2">
-        <v>304</v>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C175" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D175" t="s" s="2">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="E175" t="s" s="2">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C176" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D176" t="s" s="2">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="E176" t="s" s="2">
-        <v>308</v>
+        <v>306</v>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B177" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C177" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D177" t="s" s="2">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="E177" t="s" s="2">
-        <v>310</v>
+        <v>308</v>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="s" s="2">
-        <v>268</v>
+        <v>272</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>269</v>
+        <v>273</v>
       </c>
       <c r="C178" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D178" t="s" s="2">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="E178" t="s" s="2">
-        <v>312</v>
+        <v>310</v>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="s" s="2">
-        <v>313</v>
+        <v>272</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>314</v>
+        <v>273</v>
       </c>
       <c r="C179" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D179" t="s" s="2">
-        <v>315</v>
+        <v>311</v>
       </c>
       <c r="E179" t="s" s="2">
-        <v>316</v>
+        <v>312</v>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="s" s="2">
+        <v>272</v>
+      </c>
+      <c r="B180" t="s" s="2">
+        <v>273</v>
+      </c>
+      <c r="C180" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D180" t="s" s="2">
         <v>313</v>
       </c>
-      <c r="B180" t="s" s="2">
+      <c r="E180" t="s" s="2">
         <v>314</v>
-      </c>
-      <c r="C180" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D180" t="s" s="2">
-        <v>317</v>
-      </c>
-      <c r="E180" t="s" s="2">
-        <v>318</v>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="s" s="2">
-        <v>319</v>
+        <v>272</v>
       </c>
       <c r="B181" t="s" s="2">
-        <v>320</v>
+        <v>273</v>
       </c>
       <c r="C181" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D181" t="s" s="2">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="E181" t="s" s="2">
-        <v>322</v>
+        <v>316</v>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="s" s="2">
-        <v>323</v>
+        <v>272</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>324</v>
+        <v>273</v>
       </c>
       <c r="C182" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D182" t="s" s="2">
-        <v>325</v>
+        <v>317</v>
       </c>
       <c r="E182" t="s" s="2">
-        <v>326</v>
+        <v>318</v>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="s" s="2">
-        <v>327</v>
+        <v>272</v>
       </c>
       <c r="B183" t="s" s="2">
-        <v>328</v>
+        <v>273</v>
       </c>
       <c r="C183" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D183" t="s" s="2">
-        <v>329</v>
+        <v>319</v>
       </c>
       <c r="E183" t="s" s="2">
-        <v>330</v>
+        <v>320</v>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="s" s="2">
-        <v>331</v>
+        <v>272</v>
       </c>
       <c r="B184" t="s" s="2">
-        <v>332</v>
+        <v>273</v>
       </c>
       <c r="C184" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D184" t="s" s="2">
-        <v>329</v>
+        <v>321</v>
       </c>
       <c r="E184" t="s" s="2">
-        <v>330</v>
+        <v>322</v>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B185" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C185" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D185" t="s" s="2">
-        <v>335</v>
+        <v>325</v>
       </c>
       <c r="E185" t="s" s="2">
-        <v>336</v>
+        <v>326</v>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="s" s="2">
-        <v>333</v>
+        <v>323</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>334</v>
+        <v>324</v>
       </c>
       <c r="C186" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D186" t="s" s="2">
-        <v>337</v>
+        <v>327</v>
       </c>
       <c r="E186" t="s" s="2">
-        <v>338</v>
+        <v>328</v>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="s" s="2">
+        <v>329</v>
+      </c>
+      <c r="B187" t="s" s="2">
+        <v>330</v>
+      </c>
+      <c r="C187" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D187" t="s" s="2">
+        <v>331</v>
+      </c>
+      <c r="E187" t="s" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="s" s="2">
+        <v>333</v>
+      </c>
+      <c r="B188" t="s" s="2">
+        <v>334</v>
+      </c>
+      <c r="C188" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D188" t="s" s="2">
+        <v>335</v>
+      </c>
+      <c r="E188" t="s" s="2">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="s" s="2">
+        <v>337</v>
+      </c>
+      <c r="B189" t="s" s="2">
+        <v>338</v>
+      </c>
+      <c r="C189" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D189" t="s" s="2">
         <v>339</v>
       </c>
-      <c r="B187" t="s" s="2">
+      <c r="E189" t="s" s="2">
         <v>340</v>
       </c>
-      <c r="C187" t="s" s="2">
-        <v>39</v>
-      </c>
-      <c r="D187" t="s" s="2">
+    </row>
+    <row r="190">
+      <c r="A190" t="s" s="2">
         <v>341</v>
       </c>
-      <c r="E187" t="s" s="2">
+      <c r="B190" t="s" s="2">
         <v>342</v>
+      </c>
+      <c r="C190" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D190" t="s" s="2">
+        <v>339</v>
+      </c>
+      <c r="E190" t="s" s="2">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B191" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C191" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D191" t="s" s="2">
+        <v>345</v>
+      </c>
+      <c r="E191" t="s" s="2">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B192" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C192" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D192" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="E192" t="s" s="2">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="s" s="2">
+        <v>343</v>
+      </c>
+      <c r="B193" t="s" s="2">
+        <v>344</v>
+      </c>
+      <c r="C193" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D193" t="s" s="2">
+        <v>349</v>
+      </c>
+      <c r="E193" t="s" s="2">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="s" s="2">
+        <v>351</v>
+      </c>
+      <c r="B194" t="s" s="2">
+        <v>352</v>
+      </c>
+      <c r="C194" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D194" t="s" s="2">
+        <v>353</v>
+      </c>
+      <c r="E194" t="s" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="s" s="2">
+        <v>355</v>
+      </c>
+      <c r="B195" t="s" s="2">
+        <v>356</v>
+      </c>
+      <c r="C195" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D195" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="E195" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="s" s="2">
+        <v>359</v>
+      </c>
+      <c r="B196" t="s" s="2">
+        <v>360</v>
+      </c>
+      <c r="C196" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D196" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="E196" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="s" s="2">
+        <v>361</v>
+      </c>
+      <c r="B197" t="s" s="2">
+        <v>362</v>
+      </c>
+      <c r="C197" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D197" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="E197" t="s" s="2">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="s" s="2">
+        <v>363</v>
+      </c>
+      <c r="B198" t="s" s="2">
+        <v>364</v>
+      </c>
+      <c r="C198" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D198" t="s" s="2">
+        <v>357</v>
+      </c>
+      <c r="E198" t="s" s="2">
+        <v>358</v>
       </c>
     </row>
   </sheetData>
@@ -5009,7 +5418,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E29"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5051,19 +5460,461 @@
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>343</v>
+        <v>365</v>
       </c>
       <c r="B3" t="s" s="2">
-        <v>344</v>
+        <v>366</v>
       </c>
       <c r="C3" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>345</v>
+        <v>367</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>346</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s" s="2">
+        <v>369</v>
+      </c>
+      <c r="B4" t="s" s="2">
+        <v>370</v>
+      </c>
+      <c r="C4" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D4" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E4" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s" s="2">
+        <v>371</v>
+      </c>
+      <c r="B5" t="s" s="2">
+        <v>372</v>
+      </c>
+      <c r="C5" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D5" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E5" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s" s="2">
+        <v>373</v>
+      </c>
+      <c r="B6" t="s" s="2">
+        <v>374</v>
+      </c>
+      <c r="C6" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D6" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E6" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s" s="2">
+        <v>375</v>
+      </c>
+      <c r="B7" t="s" s="2">
+        <v>376</v>
+      </c>
+      <c r="C7" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D7" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E7" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s" s="2">
+        <v>377</v>
+      </c>
+      <c r="B8" t="s" s="2">
+        <v>378</v>
+      </c>
+      <c r="C8" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D8" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E8" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s" s="2">
+        <v>379</v>
+      </c>
+      <c r="B9" t="s" s="2">
+        <v>380</v>
+      </c>
+      <c r="C9" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D9" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E9" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s" s="2">
+        <v>381</v>
+      </c>
+      <c r="B10" t="s" s="2">
+        <v>382</v>
+      </c>
+      <c r="C10" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E10" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s" s="2">
+        <v>383</v>
+      </c>
+      <c r="B11" t="s" s="2">
+        <v>384</v>
+      </c>
+      <c r="C11" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D11" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E11" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s" s="2">
+        <v>385</v>
+      </c>
+      <c r="B12" t="s" s="2">
+        <v>386</v>
+      </c>
+      <c r="C12" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D12" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E12" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="s" s="2">
+        <v>387</v>
+      </c>
+      <c r="B13" t="s" s="2">
+        <v>388</v>
+      </c>
+      <c r="C13" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D13" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E13" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="s" s="2">
+        <v>389</v>
+      </c>
+      <c r="B14" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C14" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D14" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E14" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="B15" t="s" s="2">
+        <v>392</v>
+      </c>
+      <c r="C15" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D15" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E15" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="B16" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="C16" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D16" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E16" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s" s="2">
+        <v>395</v>
+      </c>
+      <c r="B17" t="s" s="2">
+        <v>396</v>
+      </c>
+      <c r="C17" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D17" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E17" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s" s="2">
+        <v>397</v>
+      </c>
+      <c r="B18" t="s" s="2">
+        <v>398</v>
+      </c>
+      <c r="C18" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D18" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E18" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s" s="2">
+        <v>399</v>
+      </c>
+      <c r="B19" t="s" s="2">
+        <v>400</v>
+      </c>
+      <c r="C19" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D19" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E19" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s" s="2">
+        <v>401</v>
+      </c>
+      <c r="B20" t="s" s="2">
+        <v>402</v>
+      </c>
+      <c r="C20" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D20" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E20" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s" s="2">
+        <v>403</v>
+      </c>
+      <c r="B21" t="s" s="2">
+        <v>404</v>
+      </c>
+      <c r="C21" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D21" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E21" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s" s="2">
+        <v>405</v>
+      </c>
+      <c r="B22" t="s" s="2">
+        <v>406</v>
+      </c>
+      <c r="C22" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D22" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E22" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s" s="2">
+        <v>407</v>
+      </c>
+      <c r="B23" t="s" s="2">
+        <v>408</v>
+      </c>
+      <c r="C23" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D23" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E23" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s" s="2">
+        <v>409</v>
+      </c>
+      <c r="B24" t="s" s="2">
+        <v>410</v>
+      </c>
+      <c r="C24" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D24" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E24" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s" s="2">
+        <v>411</v>
+      </c>
+      <c r="B25" t="s" s="2">
+        <v>412</v>
+      </c>
+      <c r="C25" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D25" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E25" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s" s="2">
+        <v>413</v>
+      </c>
+      <c r="B26" t="s" s="2">
+        <v>414</v>
+      </c>
+      <c r="C26" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D26" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E26" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s" s="2">
+        <v>415</v>
+      </c>
+      <c r="B27" t="s" s="2">
+        <v>416</v>
+      </c>
+      <c r="C27" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D27" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E27" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="s" s="2">
+        <v>417</v>
+      </c>
+      <c r="B28" t="s" s="2">
+        <v>418</v>
+      </c>
+      <c r="C28" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D28" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E28" t="s" s="2">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="s" s="2">
+        <v>419</v>
+      </c>
+      <c r="B29" t="s" s="2">
+        <v>420</v>
+      </c>
+      <c r="C29" t="s" s="2">
+        <v>39</v>
+      </c>
+      <c r="D29" t="s" s="2">
+        <v>367</v>
+      </c>
+      <c r="E29" t="s" s="2">
+        <v>368</v>
       </c>
     </row>
   </sheetData>
@@ -5107,7 +5958,7 @@
         <v>35</v>
       </c>
       <c r="D2" t="s" s="2">
-        <v>347</v>
+        <v>421</v>
       </c>
       <c r="E2" t="s" s="2">
         <v>35</v>
@@ -5124,10 +5975,10 @@
         <v>39</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="E3" t="s" s="2">
-        <v>349</v>
+        <v>423</v>
       </c>
     </row>
     <row r="4">
@@ -5141,10 +5992,10 @@
         <v>39</v>
       </c>
       <c r="D4" t="s" s="2">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="E4" t="s" s="2">
-        <v>351</v>
+        <v>425</v>
       </c>
     </row>
     <row r="5">
@@ -5158,10 +6009,10 @@
         <v>39</v>
       </c>
       <c r="D5" t="s" s="2">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="E5" t="s" s="2">
-        <v>353</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6">
@@ -5175,10 +6026,10 @@
         <v>39</v>
       </c>
       <c r="D6" t="s" s="2">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="E6" t="s" s="2">
-        <v>355</v>
+        <v>429</v>
       </c>
     </row>
     <row r="7">
@@ -5192,10 +6043,10 @@
         <v>39</v>
       </c>
       <c r="D7" t="s" s="2">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="E7" t="s" s="2">
-        <v>357</v>
+        <v>431</v>
       </c>
     </row>
     <row r="8">
@@ -5209,10 +6060,10 @@
         <v>39</v>
       </c>
       <c r="D8" t="s" s="2">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="E8" t="s" s="2">
-        <v>359</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9">
@@ -5226,10 +6077,10 @@
         <v>39</v>
       </c>
       <c r="D9" t="s" s="2">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="E9" t="s" s="2">
-        <v>361</v>
+        <v>435</v>
       </c>
     </row>
     <row r="10">
@@ -5243,10 +6094,10 @@
         <v>39</v>
       </c>
       <c r="D10" t="s" s="2">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="E10" t="s" s="2">
-        <v>363</v>
+        <v>437</v>
       </c>
     </row>
     <row r="11">
@@ -5260,10 +6111,10 @@
         <v>39</v>
       </c>
       <c r="D11" t="s" s="2">
-        <v>364</v>
+        <v>438</v>
       </c>
       <c r="E11" t="s" s="2">
-        <v>365</v>
+        <v>439</v>
       </c>
     </row>
     <row r="12">
@@ -5277,10 +6128,10 @@
         <v>39</v>
       </c>
       <c r="D12" t="s" s="2">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="E12" t="s" s="2">
-        <v>367</v>
+        <v>441</v>
       </c>
     </row>
     <row r="13">
@@ -5294,10 +6145,10 @@
         <v>39</v>
       </c>
       <c r="D13" t="s" s="2">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="E13" t="s" s="2">
-        <v>369</v>
+        <v>443</v>
       </c>
     </row>
     <row r="14">
@@ -5311,10 +6162,10 @@
         <v>39</v>
       </c>
       <c r="D14" t="s" s="2">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="E14" t="s" s="2">
-        <v>371</v>
+        <v>445</v>
       </c>
     </row>
     <row r="15">
@@ -5328,10 +6179,10 @@
         <v>39</v>
       </c>
       <c r="D15" t="s" s="2">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="E15" t="s" s="2">
-        <v>373</v>
+        <v>447</v>
       </c>
     </row>
     <row r="16">
@@ -5345,10 +6196,10 @@
         <v>39</v>
       </c>
       <c r="D16" t="s" s="2">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="E16" t="s" s="2">
-        <v>375</v>
+        <v>449</v>
       </c>
     </row>
     <row r="17">
@@ -5362,10 +6213,10 @@
         <v>39</v>
       </c>
       <c r="D17" t="s" s="2">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="E17" t="s" s="2">
-        <v>377</v>
+        <v>451</v>
       </c>
     </row>
     <row r="18">
@@ -5379,10 +6230,10 @@
         <v>39</v>
       </c>
       <c r="D18" t="s" s="2">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="E18" t="s" s="2">
-        <v>379</v>
+        <v>453</v>
       </c>
     </row>
     <row r="19">
@@ -5396,10 +6247,10 @@
         <v>39</v>
       </c>
       <c r="D19" t="s" s="2">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="E19" t="s" s="2">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row r="20">
@@ -5413,10 +6264,10 @@
         <v>39</v>
       </c>
       <c r="D20" t="s" s="2">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="E20" t="s" s="2">
-        <v>383</v>
+        <v>457</v>
       </c>
     </row>
     <row r="21">
@@ -5430,10 +6281,10 @@
         <v>39</v>
       </c>
       <c r="D21" t="s" s="2">
-        <v>384</v>
+        <v>458</v>
       </c>
       <c r="E21" t="s" s="2">
-        <v>385</v>
+        <v>459</v>
       </c>
     </row>
     <row r="22">
@@ -5447,10 +6298,10 @@
         <v>39</v>
       </c>
       <c r="D22" t="s" s="2">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="E22" t="s" s="2">
-        <v>349</v>
+        <v>423</v>
       </c>
     </row>
     <row r="23">
@@ -5464,10 +6315,10 @@
         <v>39</v>
       </c>
       <c r="D23" t="s" s="2">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="E23" t="s" s="2">
-        <v>351</v>
+        <v>425</v>
       </c>
     </row>
     <row r="24">
@@ -5481,10 +6332,10 @@
         <v>39</v>
       </c>
       <c r="D24" t="s" s="2">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="E24" t="s" s="2">
-        <v>353</v>
+        <v>427</v>
       </c>
     </row>
     <row r="25">
@@ -5498,10 +6349,10 @@
         <v>39</v>
       </c>
       <c r="D25" t="s" s="2">
-        <v>354</v>
+        <v>428</v>
       </c>
       <c r="E25" t="s" s="2">
-        <v>355</v>
+        <v>429</v>
       </c>
     </row>
     <row r="26">
@@ -5515,10 +6366,10 @@
         <v>39</v>
       </c>
       <c r="D26" t="s" s="2">
-        <v>386</v>
+        <v>460</v>
       </c>
       <c r="E26" t="s" s="2">
-        <v>387</v>
+        <v>461</v>
       </c>
     </row>
     <row r="27">
@@ -5532,10 +6383,10 @@
         <v>39</v>
       </c>
       <c r="D27" t="s" s="2">
-        <v>356</v>
+        <v>430</v>
       </c>
       <c r="E27" t="s" s="2">
-        <v>357</v>
+        <v>431</v>
       </c>
     </row>
     <row r="28">
@@ -5549,10 +6400,10 @@
         <v>39</v>
       </c>
       <c r="D28" t="s" s="2">
-        <v>358</v>
+        <v>432</v>
       </c>
       <c r="E28" t="s" s="2">
-        <v>359</v>
+        <v>433</v>
       </c>
     </row>
     <row r="29">
@@ -5566,10 +6417,10 @@
         <v>39</v>
       </c>
       <c r="D29" t="s" s="2">
-        <v>360</v>
+        <v>434</v>
       </c>
       <c r="E29" t="s" s="2">
-        <v>361</v>
+        <v>435</v>
       </c>
     </row>
     <row r="30">
@@ -5583,10 +6434,10 @@
         <v>39</v>
       </c>
       <c r="D30" t="s" s="2">
-        <v>388</v>
+        <v>462</v>
       </c>
       <c r="E30" t="s" s="2">
-        <v>389</v>
+        <v>463</v>
       </c>
     </row>
     <row r="31">
@@ -5600,10 +6451,10 @@
         <v>39</v>
       </c>
       <c r="D31" t="s" s="2">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="E31" t="s" s="2">
-        <v>363</v>
+        <v>437</v>
       </c>
     </row>
     <row r="32">
@@ -5617,10 +6468,10 @@
         <v>39</v>
       </c>
       <c r="D32" t="s" s="2">
-        <v>390</v>
+        <v>464</v>
       </c>
       <c r="E32" t="s" s="2">
-        <v>391</v>
+        <v>465</v>
       </c>
     </row>
     <row r="33">
@@ -5634,10 +6485,10 @@
         <v>39</v>
       </c>
       <c r="D33" t="s" s="2">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="E33" t="s" s="2">
-        <v>367</v>
+        <v>441</v>
       </c>
     </row>
     <row r="34">
@@ -5651,10 +6502,10 @@
         <v>39</v>
       </c>
       <c r="D34" t="s" s="2">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="E34" t="s" s="2">
-        <v>369</v>
+        <v>443</v>
       </c>
     </row>
     <row r="35">
@@ -5668,10 +6519,10 @@
         <v>39</v>
       </c>
       <c r="D35" t="s" s="2">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="E35" t="s" s="2">
-        <v>371</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36">
@@ -5685,10 +6536,10 @@
         <v>39</v>
       </c>
       <c r="D36" t="s" s="2">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="E36" t="s" s="2">
-        <v>373</v>
+        <v>447</v>
       </c>
     </row>
     <row r="37">
@@ -5702,10 +6553,10 @@
         <v>39</v>
       </c>
       <c r="D37" t="s" s="2">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="E37" t="s" s="2">
-        <v>375</v>
+        <v>449</v>
       </c>
     </row>
     <row r="38">
@@ -5719,10 +6570,10 @@
         <v>39</v>
       </c>
       <c r="D38" t="s" s="2">
-        <v>376</v>
+        <v>450</v>
       </c>
       <c r="E38" t="s" s="2">
-        <v>377</v>
+        <v>451</v>
       </c>
     </row>
     <row r="39">
@@ -5736,10 +6587,10 @@
         <v>39</v>
       </c>
       <c r="D39" t="s" s="2">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="E39" t="s" s="2">
-        <v>379</v>
+        <v>453</v>
       </c>
     </row>
     <row r="40">
@@ -5753,10 +6604,10 @@
         <v>39</v>
       </c>
       <c r="D40" t="s" s="2">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="E40" t="s" s="2">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row r="41">
@@ -5770,10 +6621,10 @@
         <v>39</v>
       </c>
       <c r="D41" t="s" s="2">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="E41" t="s" s="2">
-        <v>383</v>
+        <v>457</v>
       </c>
     </row>
     <row r="42">
@@ -5787,10 +6638,10 @@
         <v>39</v>
       </c>
       <c r="D42" t="s" s="2">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="E42" t="s" s="2">
-        <v>371</v>
+        <v>445</v>
       </c>
     </row>
     <row r="43">
@@ -5804,10 +6655,10 @@
         <v>39</v>
       </c>
       <c r="D43" t="s" s="2">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="E43" t="s" s="2">
-        <v>373</v>
+        <v>447</v>
       </c>
     </row>
     <row r="44">
@@ -5821,10 +6672,10 @@
         <v>39</v>
       </c>
       <c r="D44" t="s" s="2">
-        <v>374</v>
+        <v>448</v>
       </c>
       <c r="E44" t="s" s="2">
-        <v>375</v>
+        <v>449</v>
       </c>
     </row>
     <row r="45">
@@ -5838,10 +6689,10 @@
         <v>39</v>
       </c>
       <c r="D45" t="s" s="2">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="E45" t="s" s="2">
-        <v>349</v>
+        <v>423</v>
       </c>
     </row>
     <row r="46">
@@ -5855,10 +6706,10 @@
         <v>39</v>
       </c>
       <c r="D46" t="s" s="2">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="E46" t="s" s="2">
-        <v>351</v>
+        <v>425</v>
       </c>
     </row>
     <row r="47">
@@ -5872,10 +6723,10 @@
         <v>39</v>
       </c>
       <c r="D47" t="s" s="2">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="E47" t="s" s="2">
-        <v>353</v>
+        <v>427</v>
       </c>
     </row>
     <row r="48">
@@ -5889,10 +6740,10 @@
         <v>39</v>
       </c>
       <c r="D48" t="s" s="2">
-        <v>378</v>
+        <v>452</v>
       </c>
       <c r="E48" t="s" s="2">
-        <v>379</v>
+        <v>453</v>
       </c>
     </row>
     <row r="49">
@@ -5906,10 +6757,10 @@
         <v>39</v>
       </c>
       <c r="D49" t="s" s="2">
-        <v>380</v>
+        <v>454</v>
       </c>
       <c r="E49" t="s" s="2">
-        <v>381</v>
+        <v>455</v>
       </c>
     </row>
     <row r="50">
@@ -5923,10 +6774,10 @@
         <v>39</v>
       </c>
       <c r="D50" t="s" s="2">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="E50" t="s" s="2">
-        <v>363</v>
+        <v>437</v>
       </c>
     </row>
     <row r="51">
@@ -5940,10 +6791,10 @@
         <v>39</v>
       </c>
       <c r="D51" t="s" s="2">
-        <v>382</v>
+        <v>456</v>
       </c>
       <c r="E51" t="s" s="2">
-        <v>383</v>
+        <v>457</v>
       </c>
     </row>
     <row r="52">
@@ -5957,10 +6808,10 @@
         <v>39</v>
       </c>
       <c r="D52" t="s" s="2">
-        <v>366</v>
+        <v>440</v>
       </c>
       <c r="E52" t="s" s="2">
-        <v>367</v>
+        <v>441</v>
       </c>
     </row>
     <row r="53">
@@ -5974,10 +6825,10 @@
         <v>39</v>
       </c>
       <c r="D53" t="s" s="2">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="E53" t="s" s="2">
-        <v>369</v>
+        <v>443</v>
       </c>
     </row>
     <row r="54">
@@ -5991,10 +6842,10 @@
         <v>39</v>
       </c>
       <c r="D54" t="s" s="2">
-        <v>392</v>
+        <v>466</v>
       </c>
       <c r="E54" t="s" s="2">
-        <v>393</v>
+        <v>467</v>
       </c>
     </row>
     <row r="55">
@@ -6008,10 +6859,10 @@
         <v>39</v>
       </c>
       <c r="D55" t="s" s="2">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="E55" t="s" s="2">
-        <v>371</v>
+        <v>445</v>
       </c>
     </row>
     <row r="56">
@@ -6025,10 +6876,10 @@
         <v>39</v>
       </c>
       <c r="D56" t="s" s="2">
-        <v>394</v>
+        <v>468</v>
       </c>
       <c r="E56" t="s" s="2">
-        <v>395</v>
+        <v>469</v>
       </c>
     </row>
     <row r="57">
@@ -6042,10 +6893,10 @@
         <v>39</v>
       </c>
       <c r="D57" t="s" s="2">
-        <v>372</v>
+        <v>446</v>
       </c>
       <c r="E57" t="s" s="2">
-        <v>373</v>
+        <v>447</v>
       </c>
     </row>
     <row r="58">
@@ -6059,10 +6910,10 @@
         <v>39</v>
       </c>
       <c r="D58" t="s" s="2">
-        <v>396</v>
+        <v>470</v>
       </c>
       <c r="E58" t="s" s="2">
-        <v>397</v>
+        <v>471</v>
       </c>
     </row>
     <row r="59">
@@ -6076,10 +6927,10 @@
         <v>39</v>
       </c>
       <c r="D59" t="s" s="2">
-        <v>398</v>
+        <v>472</v>
       </c>
       <c r="E59" t="s" s="2">
-        <v>399</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60">
@@ -6093,10 +6944,10 @@
         <v>39</v>
       </c>
       <c r="D60" t="s" s="2">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="E60" t="s" s="2">
-        <v>351</v>
+        <v>425</v>
       </c>
     </row>
     <row r="61">
@@ -6110,10 +6961,10 @@
         <v>39</v>
       </c>
       <c r="D61" t="s" s="2">
-        <v>400</v>
+        <v>474</v>
       </c>
       <c r="E61" t="s" s="2">
-        <v>401</v>
+        <v>475</v>
       </c>
     </row>
     <row r="62">
@@ -6127,10 +6978,10 @@
         <v>39</v>
       </c>
       <c r="D62" t="s" s="2">
-        <v>402</v>
+        <v>476</v>
       </c>
       <c r="E62" t="s" s="2">
-        <v>403</v>
+        <v>477</v>
       </c>
     </row>
     <row r="63">
@@ -6144,10 +6995,10 @@
         <v>39</v>
       </c>
       <c r="D63" t="s" s="2">
-        <v>404</v>
+        <v>478</v>
       </c>
       <c r="E63" t="s" s="2">
-        <v>405</v>
+        <v>479</v>
       </c>
     </row>
     <row r="64">
@@ -6161,10 +7012,10 @@
         <v>39</v>
       </c>
       <c r="D64" t="s" s="2">
-        <v>406</v>
+        <v>480</v>
       </c>
       <c r="E64" t="s" s="2">
-        <v>407</v>
+        <v>481</v>
       </c>
     </row>
     <row r="65">
@@ -6178,10 +7029,10 @@
         <v>39</v>
       </c>
       <c r="D65" t="s" s="2">
-        <v>408</v>
+        <v>482</v>
       </c>
       <c r="E65" t="s" s="2">
-        <v>409</v>
+        <v>483</v>
       </c>
     </row>
     <row r="66">
@@ -6195,10 +7046,10 @@
         <v>39</v>
       </c>
       <c r="D66" t="s" s="2">
-        <v>410</v>
+        <v>484</v>
       </c>
       <c r="E66" t="s" s="2">
-        <v>411</v>
+        <v>485</v>
       </c>
     </row>
     <row r="67">
@@ -6212,10 +7063,10 @@
         <v>39</v>
       </c>
       <c r="D67" t="s" s="2">
-        <v>412</v>
+        <v>486</v>
       </c>
       <c r="E67" t="s" s="2">
-        <v>413</v>
+        <v>487</v>
       </c>
     </row>
     <row r="68">
@@ -6229,10 +7080,10 @@
         <v>39</v>
       </c>
       <c r="D68" t="s" s="2">
-        <v>350</v>
+        <v>424</v>
       </c>
       <c r="E68" t="s" s="2">
-        <v>351</v>
+        <v>425</v>
       </c>
     </row>
     <row r="69">
@@ -6246,10 +7097,10 @@
         <v>39</v>
       </c>
       <c r="D69" t="s" s="2">
-        <v>352</v>
+        <v>426</v>
       </c>
       <c r="E69" t="s" s="2">
-        <v>353</v>
+        <v>427</v>
       </c>
     </row>
     <row r="70">
@@ -6263,10 +7114,10 @@
         <v>39</v>
       </c>
       <c r="D70" t="s" s="2">
-        <v>414</v>
+        <v>488</v>
       </c>
       <c r="E70" t="s" s="2">
-        <v>415</v>
+        <v>489</v>
       </c>
     </row>
     <row r="71">
@@ -6280,10 +7131,10 @@
         <v>39</v>
       </c>
       <c r="D71" t="s" s="2">
-        <v>362</v>
+        <v>436</v>
       </c>
       <c r="E71" t="s" s="2">
-        <v>363</v>
+        <v>437</v>
       </c>
     </row>
     <row r="72">
@@ -6297,10 +7148,10 @@
         <v>39</v>
       </c>
       <c r="D72" t="s" s="2">
-        <v>416</v>
+        <v>490</v>
       </c>
       <c r="E72" t="s" s="2">
-        <v>417</v>
+        <v>491</v>
       </c>
     </row>
     <row r="73">
@@ -6314,10 +7165,10 @@
         <v>39</v>
       </c>
       <c r="D73" t="s" s="2">
-        <v>368</v>
+        <v>442</v>
       </c>
       <c r="E73" t="s" s="2">
-        <v>369</v>
+        <v>443</v>
       </c>
     </row>
     <row r="74">
@@ -6331,10 +7182,10 @@
         <v>39</v>
       </c>
       <c r="D74" t="s" s="2">
-        <v>418</v>
+        <v>492</v>
       </c>
       <c r="E74" t="s" s="2">
-        <v>419</v>
+        <v>493</v>
       </c>
     </row>
     <row r="75">
@@ -6348,10 +7199,10 @@
         <v>39</v>
       </c>
       <c r="D75" t="s" s="2">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="E75" t="s" s="2">
-        <v>421</v>
+        <v>495</v>
       </c>
     </row>
     <row r="76">
@@ -6365,10 +7216,10 @@
         <v>39</v>
       </c>
       <c r="D76" t="s" s="2">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="E76" t="s" s="2">
-        <v>423</v>
+        <v>497</v>
       </c>
     </row>
     <row r="77">
@@ -6382,10 +7233,10 @@
         <v>39</v>
       </c>
       <c r="D77" t="s" s="2">
-        <v>424</v>
+        <v>498</v>
       </c>
       <c r="E77" t="s" s="2">
-        <v>425</v>
+        <v>499</v>
       </c>
     </row>
     <row r="78">
@@ -6399,10 +7250,10 @@
         <v>39</v>
       </c>
       <c r="D78" t="s" s="2">
-        <v>370</v>
+        <v>444</v>
       </c>
       <c r="E78" t="s" s="2">
-        <v>371</v>
+        <v>445</v>
       </c>
     </row>
     <row r="79">
@@ -6416,10 +7267,10 @@
         <v>39</v>
       </c>
       <c r="D79" t="s" s="2">
-        <v>426</v>
+        <v>500</v>
       </c>
       <c r="E79" t="s" s="2">
-        <v>427</v>
+        <v>501</v>
       </c>
     </row>
     <row r="80">
@@ -6433,10 +7284,10 @@
         <v>39</v>
       </c>
       <c r="D80" t="s" s="2">
-        <v>428</v>
+        <v>502</v>
       </c>
       <c r="E80" t="s" s="2">
-        <v>429</v>
+        <v>503</v>
       </c>
     </row>
     <row r="81">
@@ -6450,10 +7301,10 @@
         <v>39</v>
       </c>
       <c r="D81" t="s" s="2">
-        <v>348</v>
+        <v>422</v>
       </c>
       <c r="E81" t="s" s="2">
-        <v>349</v>
+        <v>423</v>
       </c>
     </row>
     <row r="82">
@@ -6467,10 +7318,10 @@
         <v>39</v>
       </c>
       <c r="D82" t="s" s="2">
-        <v>430</v>
+        <v>504</v>
       </c>
       <c r="E82" t="s" s="2">
-        <v>431</v>
+        <v>505</v>
       </c>
     </row>
     <row r="83">
@@ -6484,10 +7335,10 @@
         <v>39</v>
       </c>
       <c r="D83" t="s" s="2">
-        <v>432</v>
+        <v>506</v>
       </c>
       <c r="E83" t="s" s="2">
-        <v>433</v>
+        <v>507</v>
       </c>
     </row>
     <row r="84">
@@ -6501,10 +7352,10 @@
         <v>39</v>
       </c>
       <c r="D84" t="s" s="2">
-        <v>434</v>
+        <v>508</v>
       </c>
       <c r="E84" t="s" s="2">
-        <v>435</v>
+        <v>509</v>
       </c>
     </row>
     <row r="85">
@@ -6518,10 +7369,10 @@
         <v>39</v>
       </c>
       <c r="D85" t="s" s="2">
-        <v>420</v>
+        <v>494</v>
       </c>
       <c r="E85" t="s" s="2">
-        <v>421</v>
+        <v>495</v>
       </c>
     </row>
     <row r="86">
@@ -6535,10 +7386,10 @@
         <v>39</v>
       </c>
       <c r="D86" t="s" s="2">
-        <v>436</v>
+        <v>510</v>
       </c>
       <c r="E86" t="s" s="2">
-        <v>437</v>
+        <v>511</v>
       </c>
     </row>
     <row r="87">
@@ -6552,10 +7403,10 @@
         <v>39</v>
       </c>
       <c r="D87" t="s" s="2">
-        <v>438</v>
+        <v>512</v>
       </c>
       <c r="E87" t="s" s="2">
-        <v>439</v>
+        <v>513</v>
       </c>
     </row>
     <row r="88">
@@ -6569,10 +7420,10 @@
         <v>39</v>
       </c>
       <c r="D88" t="s" s="2">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="E88" t="s" s="2">
-        <v>441</v>
+        <v>515</v>
       </c>
     </row>
     <row r="89">
@@ -6586,10 +7437,10 @@
         <v>39</v>
       </c>
       <c r="D89" t="s" s="2">
-        <v>442</v>
+        <v>516</v>
       </c>
       <c r="E89" t="s" s="2">
-        <v>443</v>
+        <v>517</v>
       </c>
     </row>
     <row r="90">
@@ -6603,10 +7454,10 @@
         <v>39</v>
       </c>
       <c r="D90" t="s" s="2">
-        <v>444</v>
+        <v>518</v>
       </c>
       <c r="E90" t="s" s="2">
-        <v>445</v>
+        <v>519</v>
       </c>
     </row>
     <row r="91">
@@ -6620,10 +7471,10 @@
         <v>39</v>
       </c>
       <c r="D91" t="s" s="2">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="E91" t="s" s="2">
-        <v>447</v>
+        <v>521</v>
       </c>
     </row>
     <row r="92">
@@ -6637,10 +7488,10 @@
         <v>39</v>
       </c>
       <c r="D92" t="s" s="2">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="E92" t="s" s="2">
-        <v>449</v>
+        <v>523</v>
       </c>
     </row>
     <row r="93">
@@ -6654,10 +7505,10 @@
         <v>39</v>
       </c>
       <c r="D93" t="s" s="2">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="E93" t="s" s="2">
-        <v>451</v>
+        <v>525</v>
       </c>
     </row>
     <row r="94">
@@ -6671,10 +7522,10 @@
         <v>39</v>
       </c>
       <c r="D94" t="s" s="2">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="E94" t="s" s="2">
-        <v>453</v>
+        <v>527</v>
       </c>
     </row>
     <row r="95">
@@ -6688,10 +7539,10 @@
         <v>39</v>
       </c>
       <c r="D95" t="s" s="2">
-        <v>454</v>
+        <v>528</v>
       </c>
       <c r="E95" t="s" s="2">
-        <v>455</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96">
@@ -6705,10 +7556,10 @@
         <v>39</v>
       </c>
       <c r="D96" t="s" s="2">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="E96" t="s" s="2">
-        <v>457</v>
+        <v>531</v>
       </c>
     </row>
     <row r="97">
@@ -6722,10 +7573,10 @@
         <v>39</v>
       </c>
       <c r="D97" t="s" s="2">
-        <v>458</v>
+        <v>532</v>
       </c>
       <c r="E97" t="s" s="2">
-        <v>459</v>
+        <v>533</v>
       </c>
     </row>
     <row r="98">
@@ -6739,10 +7590,10 @@
         <v>39</v>
       </c>
       <c r="D98" t="s" s="2">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="E98" t="s" s="2">
-        <v>461</v>
+        <v>535</v>
       </c>
     </row>
     <row r="99">
@@ -6756,10 +7607,10 @@
         <v>39</v>
       </c>
       <c r="D99" t="s" s="2">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="E99" t="s" s="2">
-        <v>451</v>
+        <v>525</v>
       </c>
     </row>
     <row r="100">
@@ -6773,10 +7624,10 @@
         <v>39</v>
       </c>
       <c r="D100" t="s" s="2">
-        <v>462</v>
+        <v>536</v>
       </c>
       <c r="E100" t="s" s="2">
-        <v>463</v>
+        <v>537</v>
       </c>
     </row>
     <row r="101">
@@ -6790,10 +7641,10 @@
         <v>39</v>
       </c>
       <c r="D101" t="s" s="2">
-        <v>452</v>
+        <v>526</v>
       </c>
       <c r="E101" t="s" s="2">
-        <v>453</v>
+        <v>527</v>
       </c>
     </row>
     <row r="102">
@@ -6807,10 +7658,10 @@
         <v>39</v>
       </c>
       <c r="D102" t="s" s="2">
-        <v>458</v>
+        <v>532</v>
       </c>
       <c r="E102" t="s" s="2">
-        <v>459</v>
+        <v>533</v>
       </c>
     </row>
     <row r="103">
@@ -6824,10 +7675,10 @@
         <v>39</v>
       </c>
       <c r="D103" t="s" s="2">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="E103" t="s" s="2">
-        <v>447</v>
+        <v>521</v>
       </c>
     </row>
     <row r="104">
@@ -6841,10 +7692,10 @@
         <v>39</v>
       </c>
       <c r="D104" t="s" s="2">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="E104" t="s" s="2">
-        <v>461</v>
+        <v>535</v>
       </c>
     </row>
     <row r="105">
@@ -6858,10 +7709,10 @@
         <v>39</v>
       </c>
       <c r="D105" t="s" s="2">
-        <v>448</v>
+        <v>522</v>
       </c>
       <c r="E105" t="s" s="2">
-        <v>449</v>
+        <v>523</v>
       </c>
     </row>
     <row r="106">
@@ -6875,10 +7726,10 @@
         <v>39</v>
       </c>
       <c r="D106" t="s" s="2">
-        <v>464</v>
+        <v>538</v>
       </c>
       <c r="E106" t="s" s="2">
-        <v>465</v>
+        <v>539</v>
       </c>
     </row>
     <row r="107">
@@ -6892,10 +7743,10 @@
         <v>39</v>
       </c>
       <c r="D107" t="s" s="2">
-        <v>440</v>
+        <v>514</v>
       </c>
       <c r="E107" t="s" s="2">
-        <v>441</v>
+        <v>515</v>
       </c>
     </row>
     <row r="108">
@@ -6909,10 +7760,10 @@
         <v>39</v>
       </c>
       <c r="D108" t="s" s="2">
-        <v>442</v>
+        <v>516</v>
       </c>
       <c r="E108" t="s" s="2">
-        <v>443</v>
+        <v>517</v>
       </c>
     </row>
     <row r="109">
@@ -6926,10 +7777,10 @@
         <v>39</v>
       </c>
       <c r="D109" t="s" s="2">
-        <v>466</v>
+        <v>540</v>
       </c>
       <c r="E109" t="s" s="2">
-        <v>467</v>
+        <v>541</v>
       </c>
     </row>
     <row r="110">
@@ -6943,10 +7794,10 @@
         <v>39</v>
       </c>
       <c r="D110" t="s" s="2">
-        <v>446</v>
+        <v>520</v>
       </c>
       <c r="E110" t="s" s="2">
-        <v>447</v>
+        <v>521</v>
       </c>
     </row>
     <row r="111">
@@ -6960,10 +7811,10 @@
         <v>39</v>
       </c>
       <c r="D111" t="s" s="2">
-        <v>450</v>
+        <v>524</v>
       </c>
       <c r="E111" t="s" s="2">
-        <v>451</v>
+        <v>525</v>
       </c>
     </row>
     <row r="112">
@@ -6977,10 +7828,10 @@
         <v>39</v>
       </c>
       <c r="D112" t="s" s="2">
-        <v>468</v>
+        <v>542</v>
       </c>
       <c r="E112" t="s" s="2">
-        <v>469</v>
+        <v>543</v>
       </c>
     </row>
     <row r="113">
@@ -6994,10 +7845,10 @@
         <v>39</v>
       </c>
       <c r="D113" t="s" s="2">
-        <v>456</v>
+        <v>530</v>
       </c>
       <c r="E113" t="s" s="2">
-        <v>457</v>
+        <v>531</v>
       </c>
     </row>
     <row r="114">
@@ -7011,10 +7862,10 @@
         <v>39</v>
       </c>
       <c r="D114" t="s" s="2">
-        <v>470</v>
+        <v>544</v>
       </c>
       <c r="E114" t="s" s="2">
-        <v>471</v>
+        <v>545</v>
       </c>
     </row>
     <row r="115">
@@ -7028,10 +7879,10 @@
         <v>39</v>
       </c>
       <c r="D115" t="s" s="2">
-        <v>460</v>
+        <v>534</v>
       </c>
       <c r="E115" t="s" s="2">
-        <v>461</v>
+        <v>535</v>
       </c>
     </row>
     <row r="116">
@@ -7045,10 +7896,10 @@
         <v>39</v>
       </c>
       <c r="D116" t="s" s="2">
-        <v>472</v>
+        <v>546</v>
       </c>
       <c r="E116" t="s" s="2">
-        <v>473</v>
+        <v>547</v>
       </c>
     </row>
     <row r="117">
@@ -7062,10 +7913,10 @@
         <v>39</v>
       </c>
       <c r="D117" t="s" s="2">
-        <v>474</v>
+        <v>548</v>
       </c>
       <c r="E117" t="s" s="2">
-        <v>475</v>
+        <v>549</v>
       </c>
     </row>
     <row r="118">
@@ -7079,146 +7930,146 @@
         <v>39</v>
       </c>
       <c r="D118" t="s" s="2">
-        <v>476</v>
+        <v>550</v>
       </c>
       <c r="E118" t="s" s="2">
-        <v>477</v>
+        <v>551</v>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="s" s="2">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="C119" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D119" t="s" s="2">
-        <v>478</v>
+        <v>552</v>
       </c>
       <c r="E119" t="s" s="2">
-        <v>479</v>
+        <v>553</v>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="s" s="2">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="C120" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D120" t="s" s="2">
-        <v>480</v>
+        <v>554</v>
       </c>
       <c r="E120" t="s" s="2">
-        <v>481</v>
+        <v>555</v>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C121" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D121" t="s" s="2">
-        <v>482</v>
+        <v>556</v>
       </c>
       <c r="E121" t="s" s="2">
-        <v>483</v>
+        <v>557</v>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="s" s="2">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="C122" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D122" t="s" s="2">
-        <v>484</v>
+        <v>558</v>
       </c>
       <c r="E122" t="s" s="2">
-        <v>485</v>
+        <v>559</v>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C123" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D123" t="s" s="2">
-        <v>486</v>
+        <v>560</v>
       </c>
       <c r="E123" t="s" s="2">
-        <v>487</v>
+        <v>561</v>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="s" s="2">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="C124" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D124" t="s" s="2">
-        <v>488</v>
+        <v>562</v>
       </c>
       <c r="E124" t="s" s="2">
-        <v>489</v>
+        <v>563</v>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="s" s="2">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="C125" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D125" t="s" s="2">
-        <v>490</v>
+        <v>564</v>
       </c>
       <c r="E125" t="s" s="2">
-        <v>491</v>
+        <v>565</v>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="s" s="2">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="C126" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D126" t="s" s="2">
-        <v>492</v>
+        <v>566</v>
       </c>
       <c r="E126" t="s" s="2">
-        <v>493</v>
+        <v>567</v>
       </c>
     </row>
     <row r="127">
@@ -7232,95 +8083,95 @@
         <v>39</v>
       </c>
       <c r="D127" t="s" s="2">
-        <v>494</v>
+        <v>568</v>
       </c>
       <c r="E127" t="s" s="2">
-        <v>495</v>
+        <v>569</v>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C128" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D128" t="s" s="2">
-        <v>496</v>
+        <v>570</v>
       </c>
       <c r="E128" t="s" s="2">
-        <v>497</v>
+        <v>571</v>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C129" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D129" t="s" s="2">
-        <v>498</v>
+        <v>572</v>
       </c>
       <c r="E129" t="s" s="2">
-        <v>499</v>
+        <v>573</v>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="s" s="2">
-        <v>313</v>
+        <v>323</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>314</v>
+        <v>324</v>
       </c>
       <c r="C130" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D130" t="s" s="2">
-        <v>500</v>
+        <v>574</v>
       </c>
       <c r="E130" t="s" s="2">
-        <v>501</v>
+        <v>575</v>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C131" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D131" t="s" s="2">
-        <v>502</v>
+        <v>576</v>
       </c>
       <c r="E131" t="s" s="2">
-        <v>503</v>
+        <v>577</v>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="s" s="2">
-        <v>331</v>
+        <v>341</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>332</v>
+        <v>342</v>
       </c>
       <c r="C132" t="s" s="2">
         <v>39</v>
       </c>
       <c r="D132" t="s" s="2">
-        <v>504</v>
+        <v>578</v>
       </c>
       <c r="E132" t="s" s="2">
-        <v>505</v>
+        <v>579</v>
       </c>
     </row>
   </sheetData>
